--- a/Solution3/Results/Bootstrapping Results.xlsx
+++ b/Solution3/Results/Bootstrapping Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8112D4B0-145E-4616-911F-EC1FD27E24B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83635C65-5A39-4DFE-ABBE-5A1F7867B3C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19162,7 +19162,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C2" sqref="C2:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solution3/Results/Bootstrapping Results.xlsx
+++ b/Solution3/Results/Bootstrapping Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83635C65-5A39-4DFE-ABBE-5A1F7867B3C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BDB9C3-8420-471F-BB15-1C07FF50A1F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="114">
   <si>
     <t>Image</t>
   </si>
@@ -283,54 +283,6 @@
     <t>AD9_R.png</t>
   </si>
   <si>
-    <t>AUC = 0.8434959349593496</t>
-  </si>
-  <si>
-    <t>AUC = 0.747096399535424</t>
-  </si>
-  <si>
-    <t>Avg AUC = 0.7453476112190803</t>
-  </si>
-  <si>
-    <t>Stdev AUC = 0.048833888137899954</t>
-  </si>
-  <si>
-    <t>Avg AUC = 0.8425508614484579</t>
-  </si>
-  <si>
-    <t>Stdev AUC = 0.04095131194617225</t>
-  </si>
-  <si>
-    <t>AUC = 0.8678861788617888</t>
-  </si>
-  <si>
-    <t>Avg AUC = 0.8657814418428518</t>
-  </si>
-  <si>
-    <t>Stdev AUC = 0.03788266071965637</t>
-  </si>
-  <si>
-    <t>AUC = 0.8437862950058073</t>
-  </si>
-  <si>
-    <t>Avg AUC = 0.8430019719881486</t>
-  </si>
-  <si>
-    <t>Stdev AUC = 0.03944443472042711</t>
-  </si>
-  <si>
-    <t>95% CI 0.7590011614401858 to 0.9146270396270396</t>
-  </si>
-  <si>
-    <t>95% CI 0.7866430260047281 to 0.9302325581395349</t>
-  </si>
-  <si>
-    <t>95% CI 0.6488372093023256 to 0.8375</t>
-  </si>
-  <si>
-    <t>95% CI 0.7663742690058479 to 0.9160859465737514</t>
-  </si>
-  <si>
     <t>Radiologist Prediction</t>
   </si>
   <si>
@@ -344,6 +296,75 @@
   </si>
   <si>
     <t>Machine Confidence Values</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Radiologist</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Stdev AUC = 0.04266975447398629</t>
+  </si>
+  <si>
+    <t>Avg AUC = 0.8694333861611719</t>
+  </si>
+  <si>
+    <t>95% CI 0.7779874213836478 to 0.9465737514518001</t>
+  </si>
+  <si>
+    <t>Machine+Radiologist</t>
+  </si>
+  <si>
+    <t>AUC = 0.8716608594657375</t>
+  </si>
+  <si>
+    <t>Avg AUC = 0.882803413772382</t>
+  </si>
+  <si>
+    <t>Stdev AUC = 0.03659941370481901</t>
+  </si>
+  <si>
+    <t>95% CI 0.8061414392059553 to 0.9459302325581395</t>
+  </si>
+  <si>
+    <t>AUC = 0.883855981416957</t>
+  </si>
+  <si>
+    <t>AUC = 0.8176538908246226</t>
+  </si>
+  <si>
+    <t>Avg AUC = 0.8157147301674192</t>
+  </si>
+  <si>
+    <t>Stdev AUC = 0.05099475071469199</t>
+  </si>
+  <si>
+    <t>95% CI 0.7148664343786294 to 0.9070847851335656</t>
+  </si>
+  <si>
+    <t>Avg AUC = 0.765463515480463</t>
+  </si>
+  <si>
+    <t>AUC = 0.7682926829268293</t>
+  </si>
+  <si>
+    <t>Stdev AUC = 0.05387715591742631</t>
+  </si>
+  <si>
+    <t>95% CI 0.6477541371158393 to 0.8589285714285714</t>
   </si>
 </sst>
 </file>
@@ -727,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +765,14 @@
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,25 +780,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -789,17 +826,35 @@
       <c r="F2">
         <v>0.81158071168611701</v>
       </c>
+      <c r="G2">
+        <v>0.462857142</v>
+      </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="I2">
         <v>0.75959302325581302</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2">
+        <v>0.56626506024096301</v>
+      </c>
+      <c r="N2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="O2">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="P2">
+        <v>0.63066202090592305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -815,14 +870,32 @@
       <c r="F3">
         <v>4.5507566689372697E-2</v>
       </c>
+      <c r="G3">
+        <v>0.305714285999999</v>
+      </c>
       <c r="I3">
         <v>0.77113095238095197</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="N3">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="O3">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.808652729384436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -838,14 +911,32 @@
       <c r="F4">
         <v>0.26762220056483899</v>
       </c>
+      <c r="G4">
+        <v>0.54666666600000002</v>
+      </c>
       <c r="I4">
         <v>0.72559523809523796</v>
       </c>
       <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0.74698795180722799</v>
+      </c>
+      <c r="N4">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="O4">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="P4">
+        <v>0.76829268292682895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -861,11 +952,14 @@
       <c r="F5">
         <v>0.75254947086361201</v>
       </c>
+      <c r="G5">
+        <v>0.40571428599999898</v>
+      </c>
       <c r="I5">
         <v>0.69356725146198805</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -881,11 +975,14 @@
       <c r="F6">
         <v>0.82360418493219301</v>
       </c>
+      <c r="G6">
+        <v>0.182857142</v>
+      </c>
       <c r="I6">
         <v>0.70099255583126496</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -901,11 +998,14 @@
       <c r="F7">
         <v>0.68428237988162599</v>
       </c>
+      <c r="G7">
+        <v>0.44400000000000001</v>
+      </c>
       <c r="I7">
         <v>0.746428571428571</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -921,11 +1021,14 @@
       <c r="F8">
         <v>1.3264509721530799</v>
       </c>
+      <c r="G8">
+        <v>0.29857142799999897</v>
+      </c>
       <c r="I8">
         <v>0.75684523809523796</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -941,11 +1044,14 @@
       <c r="F9">
         <v>1.22008367281696</v>
       </c>
+      <c r="G9">
+        <v>0.55466666599999903</v>
+      </c>
       <c r="I9">
         <v>0.85436046511627906</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -961,11 +1067,14 @@
       <c r="F10">
         <v>0.93849857017257898</v>
       </c>
+      <c r="G10">
+        <v>0.32666666599999999</v>
+      </c>
       <c r="I10">
         <v>0.74796511627906903</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -981,11 +1090,14 @@
       <c r="F11">
         <v>9.2167647943307396E-2</v>
       </c>
+      <c r="G11">
+        <v>0.342857142</v>
+      </c>
       <c r="I11">
         <v>0.56725146198830401</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1001,11 +1113,14 @@
       <c r="F12">
         <v>0.41945976227049397</v>
       </c>
+      <c r="G12">
+        <v>6.6666665999999902E-2</v>
+      </c>
       <c r="I12">
         <v>0.72363636363636297</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1021,11 +1136,14 @@
       <c r="F13">
         <v>0.36910103774207298</v>
       </c>
+      <c r="G13">
+        <v>0.247692308</v>
+      </c>
       <c r="I13">
         <v>0.79529616724738605</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1041,11 +1159,14 @@
       <c r="F14">
         <v>3.7561201057496399E-2</v>
       </c>
+      <c r="G14">
+        <v>4.14285719999999E-2</v>
+      </c>
       <c r="I14">
         <v>0.73774509803921495</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1061,11 +1182,14 @@
       <c r="F15">
         <v>0.67944247649702205</v>
       </c>
+      <c r="G15">
+        <v>0.47538461599999998</v>
+      </c>
       <c r="I15">
         <v>0.65145348837209305</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1080,6 +1204,9 @@
       </c>
       <c r="F16">
         <v>0.84633490204838002</v>
+      </c>
+      <c r="G16">
+        <v>0.54933333399999995</v>
       </c>
       <c r="I16">
         <v>0.75029239766081801</v>
@@ -1101,6 +1228,9 @@
       <c r="F17">
         <v>0.25500476973991099</v>
       </c>
+      <c r="G17">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="I17">
         <v>0.73432055749128899</v>
       </c>
@@ -1121,6 +1251,9 @@
       <c r="F18">
         <v>0.138090099274774</v>
       </c>
+      <c r="G18">
+        <v>0.42399999999999999</v>
+      </c>
       <c r="I18">
         <v>0.72931442080378195</v>
       </c>
@@ -1141,6 +1274,9 @@
       <c r="F19">
         <v>0.38434609181177998</v>
       </c>
+      <c r="G19">
+        <v>0.347142858</v>
+      </c>
       <c r="I19">
         <v>0.69405594405594395</v>
       </c>
@@ -1161,6 +1297,9 @@
       <c r="F20">
         <v>0.57156958899549704</v>
       </c>
+      <c r="G20">
+        <v>0.61833333399999901</v>
+      </c>
       <c r="I20">
         <v>0.72122093023255796</v>
       </c>
@@ -1181,6 +1320,9 @@
       <c r="F21">
         <v>0.57236465546400295</v>
       </c>
+      <c r="G21">
+        <v>0.34153846199999999</v>
+      </c>
       <c r="I21">
         <v>0.78319623971797803</v>
       </c>
@@ -1201,6 +1343,9 @@
       <c r="F22">
         <v>0.32104359729568199</v>
       </c>
+      <c r="G22">
+        <v>0.37066666599999898</v>
+      </c>
       <c r="I22">
         <v>0.77010804321728599</v>
       </c>
@@ -1221,6 +1366,9 @@
       <c r="F23">
         <v>0.84744162113932897</v>
       </c>
+      <c r="G23">
+        <v>0.107999999999999</v>
+      </c>
       <c r="I23">
         <v>0.74622093023255798</v>
       </c>
@@ -1241,6 +1389,9 @@
       <c r="F24">
         <v>0.68428657548911598</v>
       </c>
+      <c r="G24">
+        <v>0.62714285800000003</v>
+      </c>
       <c r="I24">
         <v>0.708720930232558</v>
       </c>
@@ -1261,6 +1412,9 @@
       <c r="F25">
         <v>0.73870523761106099</v>
       </c>
+      <c r="G25">
+        <v>0.55333333399999896</v>
+      </c>
       <c r="I25">
         <v>0.79622093023255802</v>
       </c>
@@ -1281,6 +1435,9 @@
       <c r="F26">
         <v>0.82972840223759103</v>
       </c>
+      <c r="G26">
+        <v>0.37230769199999902</v>
+      </c>
       <c r="I26">
         <v>0.78284883720930198</v>
       </c>
@@ -1301,6 +1458,9 @@
       <c r="F27">
         <v>0.159837520161592</v>
       </c>
+      <c r="G27">
+        <v>0.104</v>
+      </c>
       <c r="I27">
         <v>0.65321637426900503</v>
       </c>
@@ -1321,6 +1481,9 @@
       <c r="F28">
         <v>0.33356481912192398</v>
       </c>
+      <c r="G28">
+        <v>0.24153846200000001</v>
+      </c>
       <c r="I28">
         <v>0.74320330969267101</v>
       </c>
@@ -1341,6 +1504,9 @@
       <c r="F29">
         <v>1.8022110465806E-3</v>
       </c>
+      <c r="G29">
+        <v>0.31733333399999902</v>
+      </c>
       <c r="I29">
         <v>0.71138211382113803</v>
       </c>
@@ -1361,6 +1527,9 @@
       <c r="F30">
         <v>0.16905871900786801</v>
       </c>
+      <c r="G30">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="I30">
         <v>0.86484848484848398</v>
       </c>
@@ -1381,6 +1550,9 @@
       <c r="F31">
         <v>8.4087474090243905E-2</v>
       </c>
+      <c r="G31">
+        <v>0.62142857200000001</v>
+      </c>
       <c r="I31">
         <v>0.72296511627906901</v>
       </c>
@@ -1401,6 +1573,9 @@
       <c r="F32">
         <v>0.205389024712919</v>
       </c>
+      <c r="G32">
+        <v>0.157142858</v>
+      </c>
       <c r="I32">
         <v>0.73372093023255802</v>
       </c>
@@ -1421,6 +1596,9 @@
       <c r="F33">
         <v>2.3360445899143101E-2</v>
       </c>
+      <c r="G33">
+        <v>0.34399999999999997</v>
+      </c>
       <c r="I33">
         <v>0.75616921269095105</v>
       </c>
@@ -1441,6 +1619,9 @@
       <c r="F34">
         <v>0.228590067415471</v>
       </c>
+      <c r="G34">
+        <v>0.54533333399999995</v>
+      </c>
       <c r="I34">
         <v>0.73363636363636298</v>
       </c>
@@ -1461,6 +1642,9 @@
       <c r="F35">
         <v>0.42290305522835298</v>
       </c>
+      <c r="G35">
+        <v>0.62142857200000001</v>
+      </c>
       <c r="I35">
         <v>0.783625730994152</v>
       </c>
@@ -1481,6 +1665,9 @@
       <c r="F36">
         <v>7.3276186268897606E-2</v>
       </c>
+      <c r="G36">
+        <v>0.53857142799999902</v>
+      </c>
       <c r="I36">
         <v>0.80757931844888298</v>
       </c>
@@ -1501,6 +1688,9 @@
       <c r="F37">
         <v>0.30089055045213298</v>
       </c>
+      <c r="G37">
+        <v>0.49333333399999901</v>
+      </c>
       <c r="I37">
         <v>0.71286549707602298</v>
       </c>
@@ -1521,6 +1711,9 @@
       <c r="F38">
         <v>0.41630424262259402</v>
       </c>
+      <c r="G38">
+        <v>0.133333334</v>
+      </c>
       <c r="I38">
         <v>0.736662531017369</v>
       </c>
@@ -1541,6 +1734,9 @@
       <c r="F39">
         <v>0.92037222304330102</v>
       </c>
+      <c r="G39">
+        <v>0.40142857199999998</v>
+      </c>
       <c r="I39">
         <v>0.74679487179487103</v>
       </c>
@@ -1561,6 +1757,9 @@
       <c r="F40">
         <v>6.8521952635367797E-2</v>
       </c>
+      <c r="G40">
+        <v>0.55733333399999996</v>
+      </c>
       <c r="I40">
         <v>0.75813008130081205</v>
       </c>
@@ -1581,6 +1780,9 @@
       <c r="F41">
         <v>1.5502990199389699</v>
       </c>
+      <c r="G41">
+        <v>0.42307692400000002</v>
+      </c>
       <c r="I41">
         <v>0.83110465116278998</v>
       </c>
@@ -1601,6 +1803,9 @@
       <c r="F42">
         <v>1.18519122599903</v>
       </c>
+      <c r="G42">
+        <v>0.15428571399999899</v>
+      </c>
       <c r="I42">
         <v>0.72022332506203401</v>
       </c>
@@ -1621,6 +1826,9 @@
       <c r="F43">
         <v>0.116232855540533</v>
       </c>
+      <c r="G43">
+        <v>0.44571428599999902</v>
+      </c>
       <c r="I43">
         <v>0.74767711962833905</v>
       </c>
@@ -1641,6 +1849,9 @@
       <c r="F44">
         <v>1.87672190609281</v>
       </c>
+      <c r="G44">
+        <v>0.375384616</v>
+      </c>
       <c r="I44">
         <v>0.73906619385342798</v>
       </c>
@@ -1661,6 +1872,9 @@
       <c r="F45">
         <v>0.57385945128221505</v>
       </c>
+      <c r="G45">
+        <v>0.59285714199999995</v>
+      </c>
       <c r="I45">
         <v>0.78379953379953304</v>
       </c>
@@ -1681,6 +1895,9 @@
       <c r="F46">
         <v>1.03624389783241</v>
       </c>
+      <c r="G46">
+        <v>0.39571428599999903</v>
+      </c>
       <c r="I46">
         <v>0.75697674418604599</v>
       </c>
@@ -1701,6 +1918,9 @@
       <c r="F47">
         <v>0.22145864710528901</v>
       </c>
+      <c r="G47">
+        <v>0.56666666600000004</v>
+      </c>
       <c r="I47">
         <v>0.75730994152046704</v>
       </c>
@@ -1721,6 +1941,9 @@
       <c r="F48">
         <v>0.17354797615088</v>
       </c>
+      <c r="G48">
+        <v>0.29428571399999998</v>
+      </c>
       <c r="I48">
         <v>0.73461091753774599</v>
       </c>
@@ -1741,6 +1964,9 @@
       <c r="F49">
         <v>0.768006556332401</v>
       </c>
+      <c r="G49">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="I49">
         <v>0.85340775558166804</v>
       </c>
@@ -1761,6 +1987,9 @@
       <c r="F50">
         <v>0.35823657261998199</v>
       </c>
+      <c r="G50">
+        <v>0.60666666599999997</v>
+      </c>
       <c r="I50">
         <v>0.77061556329849001</v>
       </c>
@@ -1781,6 +2010,9 @@
       <c r="F51">
         <v>0.35650303754665102</v>
       </c>
+      <c r="G51">
+        <v>0.18266666599999901</v>
+      </c>
       <c r="I51">
         <v>0.66308139534883703</v>
       </c>
@@ -1801,6 +2033,9 @@
       <c r="F52">
         <v>0.96990927169495</v>
       </c>
+      <c r="G52">
+        <v>2.9333333999999898E-2</v>
+      </c>
       <c r="I52">
         <v>0.72843822843822803</v>
       </c>
@@ -1821,6 +2056,9 @@
       <c r="F53">
         <v>0.1479791782762</v>
       </c>
+      <c r="G53">
+        <v>0.39714285799999999</v>
+      </c>
       <c r="I53">
         <v>0.77034883720930203</v>
       </c>
@@ -1841,6 +2079,9 @@
       <c r="F54">
         <v>0.69492906458870496</v>
       </c>
+      <c r="G54">
+        <v>0.62428571399999999</v>
+      </c>
       <c r="I54">
         <v>0.72125435540069605</v>
       </c>
@@ -1861,6 +2102,9 @@
       <c r="F55">
         <v>0.60149786394403604</v>
       </c>
+      <c r="G55">
+        <v>0.42249999999999999</v>
+      </c>
       <c r="I55">
         <v>0.78110465116279004</v>
       </c>
@@ -1881,6 +2125,9 @@
       <c r="F56">
         <v>0.248330090544158</v>
       </c>
+      <c r="G56">
+        <v>2.1333333999999898E-2</v>
+      </c>
       <c r="I56">
         <v>0.646220930232558</v>
       </c>
@@ -1901,6 +2148,9 @@
       <c r="F57">
         <v>0.91185392753868499</v>
       </c>
+      <c r="G57">
+        <v>0.22</v>
+      </c>
       <c r="I57">
         <v>0.75709219858155996</v>
       </c>
@@ -1921,6 +2171,9 @@
       <c r="F58">
         <v>0.43911827709926199</v>
       </c>
+      <c r="G58">
+        <v>0.16666666599999999</v>
+      </c>
       <c r="I58">
         <v>0.74265569917743801</v>
       </c>
@@ -1941,6 +2194,9 @@
       <c r="F59">
         <v>2.26797417528001E-2</v>
       </c>
+      <c r="G59">
+        <v>0.71599999999999997</v>
+      </c>
       <c r="I59">
         <v>0.68450292397660795</v>
       </c>
@@ -1961,6 +2217,9 @@
       <c r="F60">
         <v>0.13831317259753201</v>
       </c>
+      <c r="G60">
+        <v>0.28923077000000003</v>
+      </c>
       <c r="I60">
         <v>0.76339285714285698</v>
       </c>
@@ -1981,6 +2240,9 @@
       <c r="F61">
         <v>0.47042617466639702</v>
       </c>
+      <c r="G61">
+        <v>4.6153839999999403E-3</v>
+      </c>
       <c r="I61">
         <v>0.818448883666275</v>
       </c>
@@ -2001,6 +2263,9 @@
       <c r="F62">
         <v>1.01373630242322</v>
       </c>
+      <c r="G62">
+        <v>0.70799999999999996</v>
+      </c>
       <c r="I62">
         <v>0.83011695906432703</v>
       </c>
@@ -2021,6 +2286,9 @@
       <c r="F63">
         <v>1.5865646177950601</v>
       </c>
+      <c r="G63">
+        <v>0.08</v>
+      </c>
       <c r="I63">
         <v>0.7232868757259</v>
       </c>
@@ -2041,6 +2309,9 @@
       <c r="F64">
         <v>0.38698091237340998</v>
       </c>
+      <c r="G64">
+        <v>0.20533333400000001</v>
+      </c>
       <c r="I64">
         <v>0.79186046511627906</v>
       </c>
@@ -2061,6 +2332,9 @@
       <c r="F65">
         <v>0.59639900584343297</v>
       </c>
+      <c r="G65">
+        <v>0.342857142</v>
+      </c>
       <c r="I65">
         <v>0.74529964747356003</v>
       </c>
@@ -2081,6 +2355,9 @@
       <c r="F66">
         <v>0.20977882930898301</v>
       </c>
+      <c r="G66">
+        <v>0.27428571399999901</v>
+      </c>
       <c r="I66">
         <v>0.75935672514619801</v>
       </c>
@@ -2101,6 +2378,9 @@
       <c r="F67">
         <v>0.19299193835827499</v>
       </c>
+      <c r="G67">
+        <v>0.65428571400000002</v>
+      </c>
       <c r="I67">
         <v>0.71004700352526395</v>
       </c>
@@ -2121,6 +2401,9 @@
       <c r="F68">
         <v>0.285014747006889</v>
       </c>
+      <c r="G68">
+        <v>0.51200000000000001</v>
+      </c>
       <c r="I68">
         <v>0.84736842105263099</v>
       </c>
@@ -2141,6 +2424,9 @@
       <c r="F69">
         <v>0.58157271093767404</v>
       </c>
+      <c r="G69">
+        <v>0.22769230800000001</v>
+      </c>
       <c r="I69">
         <v>0.68699186991869898</v>
       </c>
@@ -2161,6 +2447,9 @@
       <c r="F70">
         <v>1.4550834802389701</v>
       </c>
+      <c r="G70">
+        <v>0.57428571399999995</v>
+      </c>
       <c r="I70">
         <v>0.75472813238770597</v>
       </c>
@@ -2181,6 +2470,9 @@
       <c r="F71">
         <v>0.225915484774173</v>
       </c>
+      <c r="G71">
+        <v>0.745714286</v>
+      </c>
       <c r="I71">
         <v>0.761072261072261</v>
       </c>
@@ -2201,6 +2493,9 @@
       <c r="F72">
         <v>0.55960496622880496</v>
       </c>
+      <c r="G72">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="I72">
         <v>0.73459302325581399</v>
       </c>
@@ -2221,6 +2516,9 @@
       <c r="F73">
         <v>0.54368533437423405</v>
       </c>
+      <c r="G73">
+        <v>0.42266666600000002</v>
+      </c>
       <c r="I73">
         <v>0.77383720930232502</v>
       </c>
@@ -2241,6 +2539,9 @@
       <c r="F74">
         <v>0.18228494773872</v>
       </c>
+      <c r="G74">
+        <v>0.30249999999999999</v>
+      </c>
       <c r="I74">
         <v>0.81542617046818699</v>
       </c>
@@ -2261,6 +2562,9 @@
       <c r="F75">
         <v>0.22409603330090599</v>
       </c>
+      <c r="G75">
+        <v>0.06</v>
+      </c>
       <c r="I75">
         <v>0.780552291421856</v>
       </c>
@@ -2281,6 +2585,9 @@
       <c r="F76">
         <v>1.0042629465845201</v>
       </c>
+      <c r="G76">
+        <v>4.8571428E-2</v>
+      </c>
       <c r="I76">
         <v>0.72122093023255796</v>
       </c>
@@ -2301,6 +2608,9 @@
       <c r="F77">
         <v>0.39898207214854198</v>
       </c>
+      <c r="G77">
+        <v>0.27</v>
+      </c>
       <c r="I77">
         <v>0.875440658049353</v>
       </c>
@@ -2321,6 +2631,9 @@
       <c r="F78">
         <v>0.39680196072851098</v>
       </c>
+      <c r="G78">
+        <v>0.13866666599999999</v>
+      </c>
       <c r="I78">
         <v>0.75684523809523796</v>
       </c>
@@ -2341,6 +2654,9 @@
       <c r="F79">
         <v>0.95548600231391201</v>
       </c>
+      <c r="G79">
+        <v>0.152307691999999</v>
+      </c>
       <c r="I79">
         <v>0.65614035087719302</v>
       </c>
@@ -2361,6 +2677,9 @@
       <c r="F80">
         <v>0.45386297580691698</v>
       </c>
+      <c r="G80">
+        <v>0.13285714200000001</v>
+      </c>
       <c r="I80">
         <v>0.72649823736780195</v>
       </c>
@@ -2381,6 +2700,9 @@
       <c r="F81">
         <v>0.78720394537391503</v>
       </c>
+      <c r="G81">
+        <v>0.48285714200000002</v>
+      </c>
       <c r="I81">
         <v>0.73688811188811099</v>
       </c>
@@ -2401,6 +2723,9 @@
       <c r="F82">
         <v>0.47837338522323097</v>
       </c>
+      <c r="G82">
+        <v>0.118666666</v>
+      </c>
       <c r="I82">
         <v>0.67508710801393701</v>
       </c>
@@ -2421,6 +2746,9 @@
       <c r="F83">
         <v>0.30997447369823999</v>
       </c>
+      <c r="G83">
+        <v>5.5999999999999897E-2</v>
+      </c>
       <c r="I83">
         <v>0.72363636363636297</v>
       </c>
@@ -2440,6 +2768,9 @@
       </c>
       <c r="F84">
         <v>0.64216414026244295</v>
+      </c>
+      <c r="G84">
+        <v>0.21714285799999999</v>
       </c>
       <c r="I84">
         <v>0.73099415204678297</v>
@@ -7037,10 +7368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC718A7F-4416-4837-9CBF-C11F5F01DF1B}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7055,9 +7386,11 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7065,286 +7398,433 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <v>0.84976750908409004</v>
       </c>
+      <c r="G2">
+        <v>0.462857142</v>
+      </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I2">
         <v>0.86860465116278995</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="N2">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="O2">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="P2">
+        <v>0.70789779326364699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>0.122918857778317</v>
       </c>
+      <c r="G3">
+        <v>0.305714285999999</v>
+      </c>
       <c r="I3">
         <v>0.862202380952381</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="N3">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="O3">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.808652729384436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <v>0.32600277111027698</v>
       </c>
+      <c r="G4">
+        <v>0.54666666600000002</v>
+      </c>
       <c r="I4">
         <v>0.78928571428571404</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="N4">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="O4">
+        <v>0.12195121951219499</v>
+      </c>
+      <c r="P4">
+        <v>0.81765389082462203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <v>7.4718752425197404E-2</v>
       </c>
+      <c r="G5">
+        <v>0.40571428599999898</v>
+      </c>
       <c r="I5">
         <v>0.76637426900584704</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
         <v>1.1275291118208</v>
       </c>
+      <c r="G6">
+        <v>0.182857142</v>
+      </c>
       <c r="I6">
         <v>0.83281637717121504</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
         <v>0.13437624729011199</v>
       </c>
+      <c r="G7">
+        <v>0.44400000000000001</v>
+      </c>
       <c r="I7">
         <v>0.85446428571428501</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
         <v>1.05502064744295</v>
       </c>
+      <c r="G8">
+        <v>0.29857142799999897</v>
+      </c>
       <c r="I8">
         <v>0.81785714285714195</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0.83857755745559004</v>
       </c>
+      <c r="G9">
+        <v>0.55466666599999903</v>
+      </c>
       <c r="I9">
         <v>0.90436046511627899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
         <v>0.72887397805778098</v>
       </c>
+      <c r="G10">
+        <v>0.32666666599999999</v>
+      </c>
       <c r="I10">
         <v>0.892732558139534</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
         <v>0.18823340825901</v>
       </c>
+      <c r="G11">
+        <v>0.342857142</v>
+      </c>
       <c r="I11">
         <v>0.73713450292397598</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
         <v>0.33638823372545901</v>
       </c>
+      <c r="G12">
+        <v>6.6666665999999902E-2</v>
+      </c>
       <c r="I12">
         <v>0.83393939393939298</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
         <v>0.31875912853645899</v>
       </c>
+      <c r="G13">
+        <v>0.247692308</v>
+      </c>
       <c r="I13">
         <v>0.85598141695702601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
         <v>0.102505828040737</v>
       </c>
+      <c r="G14">
+        <v>4.14285719999999E-2</v>
+      </c>
       <c r="I14">
         <v>0.82965686274509798</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
         <v>0.44281322308027998</v>
       </c>
+      <c r="G15">
+        <v>0.47538461599999998</v>
+      </c>
       <c r="I15">
         <v>0.80872093023255798</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
         <v>1.04208934104532</v>
+      </c>
+      <c r="G16">
+        <v>0.54933333399999995</v>
       </c>
       <c r="I16">
         <v>0.85847953216374195</v>
@@ -7357,11 +7837,17 @@
       <c r="B17">
         <v>0</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
         <v>0.19914109246025599</v>
+      </c>
+      <c r="G17">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I17">
         <v>0.81852497096399501</v>
@@ -7374,11 +7860,17 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
         <v>0.42477133924489902</v>
+      </c>
+      <c r="G18">
+        <v>0.42399999999999999</v>
       </c>
       <c r="I18">
         <v>0.82092198581560205</v>
@@ -7391,11 +7883,17 @@
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
         <v>0.12519442658742</v>
+      </c>
+      <c r="G19">
+        <v>0.347142858</v>
       </c>
       <c r="I19">
         <v>0.82634032634032595</v>
@@ -7408,11 +7906,17 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
         <v>0.82116669544785303</v>
+      </c>
+      <c r="G20">
+        <v>0.61833333399999901</v>
       </c>
       <c r="I20">
         <v>0.89011627906976698</v>
@@ -7425,11 +7929,17 @@
       <c r="B21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
         <v>0.32905587232611999</v>
+      </c>
+      <c r="G21">
+        <v>0.34153846199999999</v>
       </c>
       <c r="I21">
         <v>0.905111633372502</v>
@@ -7442,11 +7952,17 @@
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
         <v>2.2167912924142399E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.37066666599999898</v>
       </c>
       <c r="I22">
         <v>0.84603841536614599</v>
@@ -7459,11 +7975,17 @@
       <c r="B23">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
         <v>0.83087637096973499</v>
+      </c>
+      <c r="G23">
+        <v>0.107999999999999</v>
       </c>
       <c r="I23">
         <v>0.833720930232558</v>
@@ -7476,11 +7998,17 @@
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
         <v>0.93582873911394704</v>
+      </c>
+      <c r="G24">
+        <v>0.62714285800000003</v>
       </c>
       <c r="I24">
         <v>0.85174418604651103</v>
@@ -7493,11 +8021,17 @@
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
         <v>0.690435231939455</v>
+      </c>
+      <c r="G25">
+        <v>0.55333333399999896</v>
       </c>
       <c r="I25">
         <v>0.82209302325581401</v>
@@ -7510,11 +8044,17 @@
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
         <v>0.70537521386537205</v>
+      </c>
+      <c r="G26">
+        <v>0.37230769199999902</v>
       </c>
       <c r="I26">
         <v>0.85436046511627906</v>
@@ -7527,11 +8067,17 @@
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
         <v>6.1440556903876203E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.104</v>
       </c>
       <c r="I27">
         <v>0.78157894736842104</v>
@@ -7544,11 +8090,17 @@
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
         <v>0.34489418232073499</v>
+      </c>
+      <c r="G28">
+        <v>0.24153846200000001</v>
       </c>
       <c r="I28">
         <v>0.84869976359337995</v>
@@ -7561,11 +8113,17 @@
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
         <v>5.2322103517424903E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.31733333399999902</v>
       </c>
       <c r="I29">
         <v>0.85598141695702601</v>
@@ -7578,11 +8136,17 @@
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
         <v>0.26789703398014197</v>
+      </c>
+      <c r="G30">
+        <v>0.59599999999999997</v>
       </c>
       <c r="I30">
         <v>0.88454545454545397</v>
@@ -7595,11 +8159,17 @@
       <c r="B31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
         <v>4.8867927562697602E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.62142857200000001</v>
       </c>
       <c r="I31">
         <v>0.80872093023255798</v>
@@ -7612,11 +8182,17 @@
       <c r="B32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
         <v>0.75990041190651703</v>
+      </c>
+      <c r="G32">
+        <v>0.157142858</v>
       </c>
       <c r="I32">
         <v>0.830232558139534</v>
@@ -7629,11 +8205,17 @@
       <c r="B33">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
         <v>0.108625597209939</v>
+      </c>
+      <c r="G33">
+        <v>0.34399999999999997</v>
       </c>
       <c r="I33">
         <v>0.88072855464159805</v>
@@ -7646,11 +8228,17 @@
       <c r="B34">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
         <v>0.116455544321481</v>
+      </c>
+      <c r="G34">
+        <v>0.54533333399999995</v>
       </c>
       <c r="I34">
         <v>0.83454545454545404</v>
@@ -7663,11 +8251,17 @@
       <c r="B35">
         <v>0</v>
       </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
         <v>0.117330757004213</v>
+      </c>
+      <c r="G35">
+        <v>0.62142857200000001</v>
       </c>
       <c r="I35">
         <v>0.90497076023391798</v>
@@ -7680,11 +8274,17 @@
       <c r="B36">
         <v>0</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
         <v>9.0581173773334495E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.53857142799999902</v>
       </c>
       <c r="I36">
         <v>0.86192714453583996</v>
@@ -7697,11 +8297,17 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
         <v>0.86710398495736396</v>
+      </c>
+      <c r="G37">
+        <v>0.49333333399999901</v>
       </c>
       <c r="I37">
         <v>0.85350877192982399</v>
@@ -7714,11 +8320,17 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
         <v>0.25259582970063699</v>
+      </c>
+      <c r="G38">
+        <v>0.133333334</v>
       </c>
       <c r="I38">
         <v>0.82009925558312602</v>
@@ -7731,11 +8343,17 @@
       <c r="B39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
         <v>0.62760467913761497</v>
+      </c>
+      <c r="G39">
+        <v>0.40142857199999998</v>
       </c>
       <c r="I39">
         <v>0.84498834498834496</v>
@@ -7748,11 +8366,17 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
         <v>0.36287913919054299</v>
+      </c>
+      <c r="G40">
+        <v>0.55733333399999996</v>
       </c>
       <c r="I40">
         <v>0.85569105691056901</v>
@@ -7765,11 +8389,17 @@
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
         <v>1.3251930398151299</v>
+      </c>
+      <c r="G41">
+        <v>0.42307692400000002</v>
       </c>
       <c r="I41">
         <v>0.92674418604651099</v>
@@ -7782,11 +8412,17 @@
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
         <v>1.6204337440597301</v>
+      </c>
+      <c r="G42">
+        <v>0.15428571399999899</v>
       </c>
       <c r="I42">
         <v>0.82971464019851104</v>
@@ -7799,11 +8435,17 @@
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
         <v>0.480323942187941</v>
+      </c>
+      <c r="G43">
+        <v>0.44571428599999902</v>
       </c>
       <c r="I43">
         <v>0.88008130081300795</v>
@@ -7816,11 +8458,17 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
         <v>1.46712499055928</v>
+      </c>
+      <c r="G44">
+        <v>0.375384616</v>
       </c>
       <c r="I44">
         <v>0.87972813238770597</v>
@@ -7833,11 +8481,17 @@
       <c r="B45">
         <v>1</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
         <v>0.96171576088197896</v>
+      </c>
+      <c r="G45">
+        <v>0.59285714199999995</v>
       </c>
       <c r="I45">
         <v>0.91462703962703895</v>
@@ -7850,11 +8504,17 @@
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
         <v>1.2782684923408201</v>
+      </c>
+      <c r="G46">
+        <v>0.39571428599999903</v>
       </c>
       <c r="I46">
         <v>0.82936046511627903</v>
@@ -7867,11 +8527,17 @@
       <c r="B47">
         <v>1</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
         <v>6.8151988953702794E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.56666666600000004</v>
       </c>
       <c r="I47">
         <v>0.85643274853801099</v>
@@ -7884,11 +8550,17 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
         <v>0.82790220044294605</v>
+      </c>
+      <c r="G48">
+        <v>0.29428571399999998</v>
       </c>
       <c r="I48">
         <v>0.89169570267131204</v>
@@ -7901,11 +8573,17 @@
       <c r="B49">
         <v>1</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
         <v>0.80206656268015797</v>
+      </c>
+      <c r="G49">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I49">
         <v>0.91039952996474705</v>
@@ -7918,11 +8596,17 @@
       <c r="B50">
         <v>1</v>
       </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
         <v>0.42377600846545799</v>
+      </c>
+      <c r="G50">
+        <v>0.60666666599999997</v>
       </c>
       <c r="I50">
         <v>0.90331010452961602</v>
@@ -7935,11 +8619,17 @@
       <c r="B51">
         <v>1</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
         <v>0.430031159173281</v>
+      </c>
+      <c r="G51">
+        <v>0.18266666599999901</v>
       </c>
       <c r="I51">
         <v>0.85784883720930205</v>
@@ -7952,11 +8642,17 @@
       <c r="B52">
         <v>1</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
         <v>1.1302107525618299</v>
+      </c>
+      <c r="G52">
+        <v>2.9333333999999898E-2</v>
       </c>
       <c r="I52">
         <v>0.79370629370629298</v>
@@ -7969,11 +8665,17 @@
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
         <v>0.247439394073944</v>
+      </c>
+      <c r="G53">
+        <v>0.39714285799999999</v>
       </c>
       <c r="I53">
         <v>0.87936046511627897</v>
@@ -7986,11 +8688,17 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
         <v>0.13325796433322801</v>
+      </c>
+      <c r="G54">
+        <v>0.62428571399999999</v>
       </c>
       <c r="I54">
         <v>0.86643437862950001</v>
@@ -8003,11 +8711,17 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
         <v>0.784972499590046</v>
+      </c>
+      <c r="G55">
+        <v>0.42249999999999999</v>
       </c>
       <c r="I55">
         <v>0.82936046511627903</v>
@@ -8020,11 +8734,17 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
         <v>0.53690058393024598</v>
+      </c>
+      <c r="G56">
+        <v>2.1333333999999898E-2</v>
       </c>
       <c r="I56">
         <v>0.80174418604651099</v>
@@ -8037,11 +8757,17 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
         <v>0.75791189370758905</v>
+      </c>
+      <c r="G57">
+        <v>0.22</v>
       </c>
       <c r="I57">
         <v>0.86258865248226901</v>
@@ -8054,11 +8780,17 @@
       <c r="B58">
         <v>1</v>
       </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
         <v>0.13699888173408101</v>
+      </c>
+      <c r="G58">
+        <v>0.16666666599999999</v>
       </c>
       <c r="I58">
         <v>0.81316098707402995</v>
@@ -8071,11 +8803,17 @@
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
         <v>0.28705543893571001</v>
+      </c>
+      <c r="G59">
+        <v>0.71599999999999997</v>
       </c>
       <c r="I59">
         <v>0.77543859649122804</v>
@@ -8088,11 +8826,17 @@
       <c r="B60">
         <v>1</v>
       </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
         <v>8.7623437130377197E-3</v>
+      </c>
+      <c r="G60">
+        <v>0.28923077000000003</v>
       </c>
       <c r="I60">
         <v>0.88690476190476097</v>
@@ -8105,11 +8849,17 @@
       <c r="B61">
         <v>1</v>
       </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
         <v>0.13198327099673299</v>
+      </c>
+      <c r="G61">
+        <v>4.6153839999999403E-3</v>
       </c>
       <c r="I61">
         <v>0.88895417156286705</v>
@@ -8122,11 +8872,17 @@
       <c r="B62">
         <v>1</v>
       </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
         <v>0.92266404875613806</v>
+      </c>
+      <c r="G62">
+        <v>0.70799999999999996</v>
       </c>
       <c r="I62">
         <v>0.83713450292397595</v>
@@ -8139,11 +8895,17 @@
       <c r="B63">
         <v>1</v>
       </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
         <v>1.43129104587679</v>
+      </c>
+      <c r="G63">
+        <v>0.08</v>
       </c>
       <c r="I63">
         <v>0.83072009291521398</v>
@@ -8156,11 +8918,17 @@
       <c r="B64">
         <v>1</v>
       </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
         <v>1.25891263925061</v>
+      </c>
+      <c r="G64">
+        <v>0.20533333400000001</v>
       </c>
       <c r="I64">
         <v>0.91424418604651103</v>
@@ -8173,11 +8941,17 @@
       <c r="B65">
         <v>1</v>
       </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
         <v>0.41509770656081402</v>
+      </c>
+      <c r="G65">
+        <v>0.342857142</v>
       </c>
       <c r="I65">
         <v>0.83196239717978804</v>
@@ -8190,11 +8964,17 @@
       <c r="B66">
         <v>1</v>
       </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
         <v>0.303501756644948</v>
+      </c>
+      <c r="G66">
+        <v>0.27428571399999901</v>
       </c>
       <c r="I66">
         <v>0.792690058479532</v>
@@ -8207,11 +8987,17 @@
       <c r="B67">
         <v>1</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
         <v>0.122756522876243</v>
+      </c>
+      <c r="G67">
+        <v>0.65428571400000002</v>
       </c>
       <c r="I67">
         <v>0.81286721504112802</v>
@@ -8224,11 +9010,17 @@
       <c r="B68">
         <v>1</v>
       </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
         <v>0.21995361128281399</v>
+      </c>
+      <c r="G68">
+        <v>0.51200000000000001</v>
       </c>
       <c r="I68">
         <v>0.90701754385964894</v>
@@ -8241,11 +9033,17 @@
       <c r="B69">
         <v>1</v>
       </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
         <v>0.52293670505767498</v>
+      </c>
+      <c r="G69">
+        <v>0.22769230800000001</v>
       </c>
       <c r="I69">
         <v>0.84378629500580704</v>
@@ -8258,11 +9056,17 @@
       <c r="B70">
         <v>1</v>
       </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
         <v>1.75890269818087</v>
+      </c>
+      <c r="G70">
+        <v>0.57428571399999995</v>
       </c>
       <c r="I70">
         <v>0.84544917257683205</v>
@@ -8275,11 +9079,17 @@
       <c r="B71">
         <v>1</v>
       </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
         <v>5.2612457111321502E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.745714286</v>
       </c>
       <c r="I71">
         <v>0.84353146853146799</v>
@@ -8292,11 +9102,17 @@
       <c r="B72">
         <v>1</v>
       </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
         <v>0.41339679617501301</v>
+      </c>
+      <c r="G72">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I72">
         <v>0.84273255813953396</v>
@@ -8309,11 +9125,17 @@
       <c r="B73">
         <v>1</v>
       </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
         <v>2.3477938579774101E-2</v>
+      </c>
+      <c r="G73">
+        <v>0.42266666600000002</v>
       </c>
       <c r="I73">
         <v>0.85959302325581299</v>
@@ -8326,11 +9148,17 @@
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
         <v>0.38622849625814598</v>
+      </c>
+      <c r="G74">
+        <v>0.30249999999999999</v>
       </c>
       <c r="I74">
         <v>0.91956782713085194</v>
@@ -8343,11 +9171,17 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
         <v>0.67864491883398204</v>
+      </c>
+      <c r="G75">
+        <v>0.06</v>
       </c>
       <c r="I75">
         <v>0.88072855464159805</v>
@@ -8360,11 +9194,17 @@
       <c r="B76">
         <v>1</v>
       </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
         <v>0.96929746115308402</v>
+      </c>
+      <c r="G76">
+        <v>4.8571428E-2</v>
       </c>
       <c r="I76">
         <v>0.86598837209302304</v>
@@ -8377,11 +9217,17 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
         <v>0.25506125216468001</v>
+      </c>
+      <c r="G77">
+        <v>0.27</v>
       </c>
       <c r="I77">
         <v>0.92685076380728504</v>
@@ -8394,11 +9240,17 @@
       <c r="B78">
         <v>1</v>
       </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
         <v>0.40465853783214401</v>
+      </c>
+      <c r="G78">
+        <v>0.13866666599999999</v>
       </c>
       <c r="I78">
         <v>0.79851190476190403</v>
@@ -8411,11 +9263,17 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
         <v>0.52778822643479295</v>
+      </c>
+      <c r="G79">
+        <v>0.152307691999999</v>
       </c>
       <c r="I79">
         <v>0.777485380116959</v>
@@ -8428,11 +9286,17 @@
       <c r="B80">
         <v>1</v>
       </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
         <v>0.308437826398969</v>
+      </c>
+      <c r="G80">
+        <v>0.13285714200000001</v>
       </c>
       <c r="I80">
         <v>0.79435957696827197</v>
@@ -8445,11 +9309,17 @@
       <c r="B81">
         <v>1</v>
       </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
         <v>0.89434252594105001</v>
+      </c>
+      <c r="G81">
+        <v>0.48285714200000002</v>
       </c>
       <c r="I81">
         <v>0.77680652680652595</v>
@@ -8462,11 +9332,17 @@
       <c r="B82">
         <v>1</v>
       </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
         <v>1.1111824723253901E-2</v>
+      </c>
+      <c r="G82">
+        <v>0.118666666</v>
       </c>
       <c r="I82">
         <v>0.80807200929152101</v>
@@ -8479,11 +9355,17 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
         <v>0.45796593972960298</v>
+      </c>
+      <c r="G83">
+        <v>5.5999999999999897E-2</v>
       </c>
       <c r="I83">
         <v>0.824242424242424</v>
@@ -8496,11 +9378,17 @@
       <c r="B84">
         <v>1</v>
       </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
         <v>0.494716803423709</v>
+      </c>
+      <c r="G84">
+        <v>0.21714285799999999</v>
       </c>
       <c r="I84">
         <v>0.85643274853801099</v>
@@ -13098,10 +13986,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD840D1-1D4B-4BA9-B0B8-24F9FD7C2C86}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13116,9 +14004,11 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13126,286 +14016,433 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <v>0.86214502534912196</v>
       </c>
+      <c r="G2">
+        <v>0.462857142</v>
+      </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I2">
         <v>0.78284883720930198</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2">
+        <v>0.67469879518072196</v>
+      </c>
+      <c r="N2">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="O2">
+        <v>0.292682926829268</v>
+      </c>
+      <c r="P2">
+        <v>0.77061556329849001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>0.116721912080721</v>
       </c>
+      <c r="G3">
+        <v>0.305714285999999</v>
+      </c>
       <c r="I3">
         <v>0.87261904761904696</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="N3">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="O3">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.808652729384436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <v>0.56815072192228</v>
       </c>
+      <c r="G4">
+        <v>0.54666666600000002</v>
+      </c>
       <c r="I4">
         <v>0.78928571428571404</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="N4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="O4">
+        <v>0.146341463414634</v>
+      </c>
+      <c r="P4">
+        <v>0.88385598141695698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <v>7.7045663940696799E-2</v>
       </c>
+      <c r="G5">
+        <v>0.40571428599999898</v>
+      </c>
       <c r="I5">
         <v>0.85029239766081799</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
         <v>0.78345625803863495</v>
       </c>
+      <c r="G6">
+        <v>0.182857142</v>
+      </c>
       <c r="I6">
         <v>0.86507444168734404</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <v>0.47036118483700701</v>
       </c>
+      <c r="G7">
+        <v>0.44400000000000001</v>
+      </c>
       <c r="I7">
         <v>0.81279761904761905</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
         <v>2.0921817748661602</v>
       </c>
+      <c r="G8">
+        <v>0.29857142799999897</v>
+      </c>
       <c r="I8">
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>1.0556594289251799</v>
       </c>
+      <c r="G9">
+        <v>0.55466666599999903</v>
+      </c>
       <c r="I9">
         <v>0.878488372093023</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
         <v>1.0011940179323</v>
       </c>
+      <c r="G10">
+        <v>0.32666666599999999</v>
+      </c>
       <c r="I10">
         <v>0.82936046511627903</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
         <v>9.8604137987704801E-2</v>
       </c>
+      <c r="G11">
+        <v>0.342857142</v>
+      </c>
       <c r="I11">
         <v>0.75730994152046704</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
         <v>0.119618302481688</v>
       </c>
+      <c r="G12">
+        <v>6.6666665999999902E-2</v>
+      </c>
       <c r="I12">
         <v>0.84424242424242402</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
         <v>1.1364745134021601</v>
       </c>
+      <c r="G13">
+        <v>0.247692308</v>
+      </c>
       <c r="I13">
         <v>0.86788617886178798</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
         <v>0.74875279344046397</v>
       </c>
+      <c r="G14">
+        <v>4.14285719999999E-2</v>
+      </c>
       <c r="I14">
         <v>0.85906862745098</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
         <v>0.16602481507187999</v>
       </c>
+      <c r="G15">
+        <v>0.47538461599999998</v>
+      </c>
       <c r="I15">
         <v>0.80872093023255798</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
         <v>1.13960505036602</v>
+      </c>
+      <c r="G16">
+        <v>0.54933333399999995</v>
       </c>
       <c r="I16">
         <v>0.86959064327485303</v>
@@ -13418,11 +14455,17 @@
       <c r="B17">
         <v>0</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
         <v>0.55904790936231097</v>
+      </c>
+      <c r="G17">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I17">
         <v>0.81881533101045301</v>
@@ -13435,11 +14478,17 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
         <v>0.13247386743502201</v>
+      </c>
+      <c r="G18">
+        <v>0.42399999999999999</v>
       </c>
       <c r="I18">
         <v>0.85608747044917199</v>
@@ -13452,11 +14501,17 @@
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
         <v>0.30660298919399198</v>
+      </c>
+      <c r="G19">
+        <v>0.347142858</v>
       </c>
       <c r="I19">
         <v>0.84061771561771503</v>
@@ -13469,11 +14524,17 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
         <v>0.67594341076745601</v>
+      </c>
+      <c r="G20">
+        <v>0.61833333399999901</v>
       </c>
       <c r="I20">
         <v>0.83110465116278998</v>
@@ -13486,11 +14547,17 @@
       <c r="B21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
         <v>0.59163161136336595</v>
+      </c>
+      <c r="G21">
+        <v>0.34153846199999999</v>
       </c>
       <c r="I21">
         <v>0.88631022326674502</v>
@@ -13503,11 +14570,17 @@
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
         <v>0.56038052846741504</v>
+      </c>
+      <c r="G22">
+        <v>0.37066666599999898</v>
       </c>
       <c r="I22">
         <v>0.860744297719087</v>
@@ -13520,11 +14593,17 @@
       <c r="B23">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
         <v>0.90491976603661095</v>
+      </c>
+      <c r="G23">
+        <v>0.107999999999999</v>
       </c>
       <c r="I23">
         <v>0.79447674418604597</v>
@@ -13537,11 +14616,17 @@
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
         <v>0.33280813725629399</v>
+      </c>
+      <c r="G24">
+        <v>0.62714285800000003</v>
       </c>
       <c r="I24">
         <v>0.79447674418604597</v>
@@ -13554,11 +14639,17 @@
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
         <v>1.01020086064096</v>
+      </c>
+      <c r="G25">
+        <v>0.55333333399999896</v>
       </c>
       <c r="I25">
         <v>0.833720930232558</v>
@@ -13571,11 +14662,17 @@
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
         <v>0.171506233354456</v>
+      </c>
+      <c r="G26">
+        <v>0.37230769199999902</v>
       </c>
       <c r="I26">
         <v>0.85523255813953403</v>
@@ -13588,11 +14685,17 @@
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
         <v>0.56597043708066297</v>
+      </c>
+      <c r="G27">
+        <v>0.104</v>
       </c>
       <c r="I27">
         <v>0.768421052631579</v>
@@ -13605,11 +14708,17 @@
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
         <v>0.61487357655317898</v>
+      </c>
+      <c r="G28">
+        <v>0.24153846200000001</v>
       </c>
       <c r="I28">
         <v>0.88711583924349802</v>
@@ -13622,11 +14731,17 @@
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
         <v>2.4939859970258501E-3</v>
+      </c>
+      <c r="G29">
+        <v>0.31733333399999902</v>
       </c>
       <c r="I29">
         <v>0.80749128919860602</v>
@@ -13639,11 +14754,17 @@
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
         <v>0.17072700610625099</v>
+      </c>
+      <c r="G30">
+        <v>0.59599999999999997</v>
       </c>
       <c r="I30">
         <v>0.85454545454545405</v>
@@ -13656,11 +14777,17 @@
       <c r="B31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
         <v>5.5839961386977201E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.62142857200000001</v>
       </c>
       <c r="I31">
         <v>0.80784883720930201</v>
@@ -13673,11 +14800,17 @@
       <c r="B32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
         <v>0.533418961196376</v>
+      </c>
+      <c r="G32">
+        <v>0.157142858</v>
       </c>
       <c r="I32">
         <v>0.84098837209302302</v>
@@ -13690,11 +14823,17 @@
       <c r="B33">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
         <v>0.129312601183009</v>
+      </c>
+      <c r="G33">
+        <v>0.34399999999999997</v>
       </c>
       <c r="I33">
         <v>0.87808460634547503</v>
@@ -13707,11 +14846,17 @@
       <c r="B34">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
         <v>7.4989811272123605E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.54533333399999995</v>
       </c>
       <c r="I34">
         <v>0.82939393939393902</v>
@@ -13724,11 +14869,17 @@
       <c r="B35">
         <v>0</v>
       </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
         <v>0.11208697956019401</v>
+      </c>
+      <c r="G35">
+        <v>0.62142857200000001</v>
       </c>
       <c r="I35">
         <v>0.86754385964912195</v>
@@ -13741,11 +14892,17 @@
       <c r="B36">
         <v>0</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
         <v>8.9371791849537197E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.53857142799999902</v>
       </c>
       <c r="I36">
         <v>0.82373678025851904</v>
@@ -13758,11 +14915,17 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
         <v>0.71255669863228899</v>
+      </c>
+      <c r="G37">
+        <v>0.49333333399999901</v>
       </c>
       <c r="I37">
         <v>0.768421052631579</v>
@@ -13775,11 +14938,17 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
         <v>0.43578532471515702</v>
+      </c>
+      <c r="G38">
+        <v>0.133333334</v>
       </c>
       <c r="I38">
         <v>0.84243176178659995</v>
@@ -13792,11 +14961,17 @@
       <c r="B39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
         <v>3.9966272436545498E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.40142857199999998</v>
       </c>
       <c r="I39">
         <v>0.84207459207459201</v>
@@ -13809,11 +14984,17 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
         <v>0.828501609830949</v>
+      </c>
+      <c r="G40">
+        <v>0.55733333399999996</v>
       </c>
       <c r="I40">
         <v>0.78281068524970898</v>
@@ -13826,11 +15007,17 @@
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
         <v>1.69942257238894</v>
+      </c>
+      <c r="G41">
+        <v>0.42307692400000002</v>
       </c>
       <c r="I41">
         <v>0.892732558139534</v>
@@ -13843,11 +15030,17 @@
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
         <v>1.3882414331950801</v>
+      </c>
+      <c r="G42">
+        <v>0.15428571399999899</v>
       </c>
       <c r="I42">
         <v>0.82971464019851104</v>
@@ -13860,11 +15053,17 @@
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
         <v>0.37330950232354698</v>
+      </c>
+      <c r="G43">
+        <v>0.44571428599999902</v>
       </c>
       <c r="I43">
         <v>0.80807200929152101</v>
@@ -13877,11 +15076,17 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
         <v>1.3298808907840201</v>
+      </c>
+      <c r="G44">
+        <v>0.375384616</v>
       </c>
       <c r="I44">
         <v>0.84869976359337995</v>
@@ -13894,11 +15099,17 @@
       <c r="B45">
         <v>1</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
         <v>0.89985930724313201</v>
+      </c>
+      <c r="G45">
+        <v>0.59285714199999995</v>
       </c>
       <c r="I45">
         <v>0.91462703962703895</v>
@@ -13911,11 +15122,17 @@
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
         <v>0.39613436244925199</v>
+      </c>
+      <c r="G46">
+        <v>0.39571428599999903</v>
       </c>
       <c r="I46">
         <v>0.86511627906976696</v>
@@ -13928,11 +15145,17 @@
       <c r="B47">
         <v>1</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
         <v>5.0830754786535795E-4</v>
+      </c>
+      <c r="G47">
+        <v>0.56666666600000004</v>
       </c>
       <c r="I47">
         <v>0.88976608187134498</v>
@@ -13945,11 +15168,17 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
         <v>0.162271350450124</v>
+      </c>
+      <c r="G48">
+        <v>0.29428571399999998</v>
       </c>
       <c r="I48">
         <v>0.89198606271777003</v>
@@ -13962,11 +15191,17 @@
       <c r="B49">
         <v>1</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
         <v>0.33274397359477398</v>
+      </c>
+      <c r="G49">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I49">
         <v>0.896886016451233</v>
@@ -13979,11 +15214,17 @@
       <c r="B50">
         <v>1</v>
       </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
         <v>8.9740799961524495E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.60666666599999997</v>
       </c>
       <c r="I50">
         <v>0.91521486643437799</v>
@@ -13996,11 +15237,17 @@
       <c r="B51">
         <v>1</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
         <v>7.2728178914915802E-3</v>
+      </c>
+      <c r="G51">
+        <v>0.18266666599999901</v>
       </c>
       <c r="I51">
         <v>0.80436046511627901</v>
@@ -14013,11 +15260,17 @@
       <c r="B52">
         <v>1</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
         <v>0.60007602096368096</v>
+      </c>
+      <c r="G52">
+        <v>2.9333333999999898E-2</v>
       </c>
       <c r="I52">
         <v>0.74679487179487103</v>
@@ -14030,11 +15283,17 @@
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
         <v>0.65940872444911702</v>
+      </c>
+      <c r="G53">
+        <v>0.39714285799999999</v>
       </c>
       <c r="I53">
         <v>0.90348837209302302</v>
@@ -14047,11 +15306,17 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
         <v>0.13121850827572301</v>
+      </c>
+      <c r="G54">
+        <v>0.62428571399999999</v>
       </c>
       <c r="I54">
         <v>0.89140534262485405</v>
@@ -14064,11 +15329,17 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
         <v>0.26117819385752999</v>
+      </c>
+      <c r="G55">
+        <v>0.42249999999999999</v>
       </c>
       <c r="I55">
         <v>0.85348837209302297</v>
@@ -14081,11 +15352,17 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
         <v>0.51873242164687705</v>
+      </c>
+      <c r="G56">
+        <v>2.1333333999999898E-2</v>
       </c>
       <c r="I56">
         <v>0.815988372093023</v>
@@ -14098,11 +15375,17 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
         <v>1.4268971786037199</v>
+      </c>
+      <c r="G57">
+        <v>0.22</v>
       </c>
       <c r="I57">
         <v>0.84869976359337995</v>
@@ -14115,11 +15398,17 @@
       <c r="B58">
         <v>1</v>
       </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
         <v>0.483098107286622</v>
+      </c>
+      <c r="G58">
+        <v>0.16666666599999999</v>
       </c>
       <c r="I58">
         <v>0.86192714453583996</v>
@@ -14132,11 +15421,17 @@
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
         <v>0.49453111463043598</v>
+      </c>
+      <c r="G59">
+        <v>0.71599999999999997</v>
       </c>
       <c r="I59">
         <v>0.77953216374268997</v>
@@ -14149,11 +15444,17 @@
       <c r="B60">
         <v>1</v>
       </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
         <v>0.25659752724507401</v>
+      </c>
+      <c r="G60">
+        <v>0.28923077000000003</v>
       </c>
       <c r="I60">
         <v>0.87648809523809501</v>
@@ -14166,11 +15467,17 @@
       <c r="B61">
         <v>1</v>
       </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
         <v>0.15141241270105199</v>
+      </c>
+      <c r="G61">
+        <v>4.6153839999999403E-3</v>
       </c>
       <c r="I61">
         <v>0.90246768507637998</v>
@@ -14183,11 +15490,17 @@
       <c r="B62">
         <v>1</v>
       </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
         <v>0.25494998774777999</v>
+      </c>
+      <c r="G62">
+        <v>0.70799999999999996</v>
       </c>
       <c r="I62">
         <v>0.87865497076023302</v>
@@ -14200,11 +15513,17 @@
       <c r="B63">
         <v>1</v>
       </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
         <v>1.77540067705024</v>
+      </c>
+      <c r="G63">
+        <v>0.08</v>
       </c>
       <c r="I63">
         <v>0.78310104529616698</v>
@@ -14217,11 +15536,17 @@
       <c r="B64">
         <v>1</v>
       </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
         <v>0.62284723611592996</v>
+      </c>
+      <c r="G64">
+        <v>0.20533333400000001</v>
       </c>
       <c r="I64">
         <v>0.90174418604651096</v>
@@ -14234,11 +15559,17 @@
       <c r="B65">
         <v>1</v>
       </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
         <v>0.261608356926185</v>
+      </c>
+      <c r="G65">
+        <v>0.342857142</v>
       </c>
       <c r="I65">
         <v>0.82373678025851904</v>
@@ -14251,11 +15582,17 @@
       <c r="B66">
         <v>1</v>
       </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
         <v>0.93572056974704398</v>
+      </c>
+      <c r="G66">
+        <v>0.27428571399999901</v>
       </c>
       <c r="I66">
         <v>0.80584795321637404</v>
@@ -14268,11 +15605,17 @@
       <c r="B67">
         <v>1</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
         <v>5.8887059080366899E-2</v>
+      </c>
+      <c r="G67">
+        <v>0.65428571400000002</v>
       </c>
       <c r="I67">
         <v>0.79935370152761398</v>
@@ -14285,11 +15628,17 @@
       <c r="B68">
         <v>1</v>
       </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
         <v>0.13100705600314999</v>
+      </c>
+      <c r="G68">
+        <v>0.51200000000000001</v>
       </c>
       <c r="I68">
         <v>0.86754385964912195</v>
@@ -14302,11 +15651,17 @@
       <c r="B69">
         <v>1</v>
       </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
         <v>0.63460697626263696</v>
+      </c>
+      <c r="G69">
+        <v>0.22769230800000001</v>
       </c>
       <c r="I69">
         <v>0.83159117305458696</v>
@@ -14319,11 +15674,17 @@
       <c r="B70">
         <v>1</v>
       </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
         <v>0.98378128586267199</v>
+      </c>
+      <c r="G70">
+        <v>0.57428571399999995</v>
       </c>
       <c r="I70">
         <v>0.83894799054373503</v>
@@ -14336,11 +15697,17 @@
       <c r="B71">
         <v>1</v>
       </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
         <v>2.88395540532695E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.745714286</v>
       </c>
       <c r="I71">
         <v>0.89481351981351898</v>
@@ -14353,11 +15720,17 @@
       <c r="B72">
         <v>1</v>
       </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
         <v>0.13394540758248</v>
+      </c>
+      <c r="G72">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I72">
         <v>0.84360465116279004</v>
@@ -14370,11 +15743,17 @@
       <c r="B73">
         <v>1</v>
       </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
         <v>0.50248955698933595</v>
+      </c>
+      <c r="G73">
+        <v>0.42266666600000002</v>
       </c>
       <c r="I73">
         <v>0.90697674418604601</v>
@@ -14387,11 +15766,17 @@
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
         <v>0.64555887812979795</v>
+      </c>
+      <c r="G74">
+        <v>0.30249999999999999</v>
       </c>
       <c r="I74">
         <v>0.91056422569027595</v>
@@ -14404,11 +15789,17 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
         <v>0.33069085435310303</v>
+      </c>
+      <c r="G75">
+        <v>0.06</v>
       </c>
       <c r="I75">
         <v>0.86985898942420603</v>
@@ -14421,11 +15812,17 @@
       <c r="B76">
         <v>1</v>
       </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
         <v>1.6753083362875401</v>
+      </c>
+      <c r="G76">
+        <v>4.8571428E-2</v>
       </c>
       <c r="I76">
         <v>0.80523255813953398</v>
@@ -14438,11 +15835,17 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
         <v>0.62579730405548595</v>
+      </c>
+      <c r="G77">
+        <v>0.27</v>
       </c>
       <c r="I77">
         <v>0.89982373678025795</v>
@@ -14455,11 +15858,17 @@
       <c r="B78">
         <v>1</v>
       </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
         <v>0.46842218267706398</v>
+      </c>
+      <c r="G78">
+        <v>0.13866666599999999</v>
       </c>
       <c r="I78">
         <v>0.78154761904761905</v>
@@ -14472,11 +15881,17 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
         <v>0.59209443934954897</v>
+      </c>
+      <c r="G79">
+        <v>0.152307691999999</v>
       </c>
       <c r="I79">
         <v>0.84122807017543799</v>
@@ -14489,11 +15904,17 @@
       <c r="B80">
         <v>1</v>
       </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
         <v>0.79708789444466499</v>
+      </c>
+      <c r="G80">
+        <v>0.13285714200000001</v>
       </c>
       <c r="I80">
         <v>0.83490011750881299</v>
@@ -14506,11 +15927,17 @@
       <c r="B81">
         <v>1</v>
       </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
         <v>0.35870713750562</v>
+      </c>
+      <c r="G81">
+        <v>0.48285714200000002</v>
       </c>
       <c r="I81">
         <v>0.74825174825174801</v>
@@ -14523,11 +15950,17 @@
       <c r="B82">
         <v>1</v>
       </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
         <v>0.44077515986564197</v>
+      </c>
+      <c r="G82">
+        <v>0.118666666</v>
       </c>
       <c r="I82">
         <v>0.75987224157955802</v>
@@ -14540,11 +15973,17 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
         <v>0.57011991729475198</v>
+      </c>
+      <c r="G83">
+        <v>5.5999999999999897E-2</v>
       </c>
       <c r="I83">
         <v>0.79878787878787805</v>
@@ -14557,11 +15996,17 @@
       <c r="B84">
         <v>1</v>
       </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
         <v>0.32246658767414399</v>
+      </c>
+      <c r="G84">
+        <v>0.21714285799999999</v>
       </c>
       <c r="I84">
         <v>0.86549707602339099</v>
@@ -19159,10 +20604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B8CFE-CE27-48D0-99D6-D06E8FAF20D9}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C84"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19177,9 +20622,11 @@
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19187,25 +20634,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -19228,16 +20687,31 @@
         <v>0.462857142</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>0.88023255813953405</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2">
+        <v>0.66265060240963802</v>
+      </c>
+      <c r="N2">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="O2">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="P2">
+        <v>0.78281068524970898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -19263,10 +20737,25 @@
         <v>0.88303571428571404</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="N3">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="O3">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.808652729384436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -19294,8 +20783,23 @@
       <c r="J4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>0.86746987951807197</v>
+      </c>
+      <c r="N4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="O4">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.87166085946573701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -19321,7 +20825,7 @@
         <v>0.89883040935672498</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -19347,7 +20851,7 @@
         <v>0.86507444168734404</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -19373,7 +20877,7 @@
         <v>0.89732142857142805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -19399,7 +20903,7 @@
         <v>0.82053571428571404</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -19425,7 +20929,7 @@
         <v>0.95087209302325504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -19451,7 +20955,7 @@
         <v>0.915116279069767</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -19477,7 +20981,7 @@
         <v>0.87865497076023302</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -19503,7 +21007,7 @@
         <v>0.82393939393939397</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -19529,7 +21033,7 @@
         <v>0.83246225319395994</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -19555,7 +21059,7 @@
         <v>0.88633578431372495</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -19581,7 +21085,7 @@
         <v>0.89098837209302295</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/Solution3/Results/Bootstrapping Results.xlsx
+++ b/Solution3/Results/Bootstrapping Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BDB9C3-8420-471F-BB15-1C07FF50A1F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE78D9F-20F1-49F1-B591-D2E69BDB30C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,17 +13,23 @@
     <sheet name="NoCrop Facing Same Dir" sheetId="2" r:id="rId3"/>
     <sheet name="Cropped Facing Same Dir" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="115">
   <si>
     <t>Image</t>
   </si>
@@ -366,6 +372,9 @@
   <si>
     <t>95% CI 0.6477541371158393 to 0.8589285714285714</t>
   </si>
+  <si>
+    <t>AUC stdev</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,13 +450,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -457,7 +487,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -465,6 +495,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -748,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,10 +802,10 @@
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,20 +830,24 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -838,23 +875,24 @@
       <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>0.56626506024096301</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>0.57142857142857095</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>0.439024390243902</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <v>0.63066202090592305</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -879,23 +917,24 @@
       <c r="J3" t="s">
         <v>112</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>0.80722891566264998</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>0.69047619047619002</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>7.3170731707316999E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>0.808652729384436</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -920,23 +959,26 @@
       <c r="J4" t="s">
         <v>113</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>0.74698795180722799</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>0.73809523809523803</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>0.24390243902438999</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>0.76829268292682895</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8">
+        <v>5.3877155917426298E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -959,7 +1001,7 @@
         <v>0.69356725146198805</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -982,7 +1024,7 @@
         <v>0.70099255583126496</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1047,7 @@
         <v>0.746428571428571</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1070,7 @@
         <v>0.75684523809523796</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1093,7 @@
         <v>0.85436046511627906</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1116,7 @@
         <v>0.74796511627906903</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1139,7 @@
         <v>0.56725146198830401</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1162,7 @@
         <v>0.72363636363636297</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1185,7 @@
         <v>0.79529616724738605</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1208,7 @@
         <v>0.73774509803921495</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1231,7 @@
         <v>0.65145348837209305</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7368,10 +7410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC718A7F-4416-4837-9CBF-C11F5F01DF1B}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7387,10 +7429,10 @@
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7415,20 +7457,24 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7456,23 +7502,24 @@
       <c r="J2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>0.65060240963855398</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>0.69047619047619002</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>0.39024390243902402</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <v>0.70789779326364699</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7497,23 +7544,24 @@
       <c r="J3" t="s">
         <v>108</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>0.80722891566264998</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>0.69047619047619002</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>7.3170731707316999E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>0.808652729384436</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7538,23 +7586,26 @@
       <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>0.843373493975903</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>0.80952380952380898</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>0.12195121951219499</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>0.81765389082462203</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8">
+        <v>5.0994750714691901E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7577,7 +7628,7 @@
         <v>0.76637426900584704</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7600,7 +7651,7 @@
         <v>0.83281637717121504</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7623,7 +7674,7 @@
         <v>0.85446428571428501</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7646,7 +7697,7 @@
         <v>0.81785714285714195</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7669,7 +7720,7 @@
         <v>0.90436046511627899</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7692,7 +7743,7 @@
         <v>0.892732558139534</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -7715,7 +7766,7 @@
         <v>0.73713450292397598</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -7738,7 +7789,7 @@
         <v>0.83393939393939298</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -7761,7 +7812,7 @@
         <v>0.85598141695702601</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -7784,7 +7835,7 @@
         <v>0.82965686274509798</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7807,7 +7858,7 @@
         <v>0.80872093023255798</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -13986,10 +14037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD840D1-1D4B-4BA9-B0B8-24F9FD7C2C86}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14005,10 +14056,10 @@
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14033,20 +14084,24 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -14074,23 +14129,24 @@
       <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>0.67469879518072196</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>0.64285714285714202</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>0.292682926829268</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <v>0.77061556329849001</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14115,23 +14171,24 @@
       <c r="J3" t="s">
         <v>103</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>0.80722891566264998</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>0.69047619047619002</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>7.3170731707316999E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>0.808652729384436</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14156,23 +14213,26 @@
       <c r="J4" t="s">
         <v>104</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>0.843373493975903</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>0.83333333333333304</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>0.146341463414634</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>0.88385598141695698</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8">
+        <v>3.6599413704818999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -14195,7 +14255,7 @@
         <v>0.85029239766081799</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -14218,7 +14278,7 @@
         <v>0.86507444168734404</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14241,7 +14301,7 @@
         <v>0.81279761904761905</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -14264,7 +14324,7 @@
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -14287,7 +14347,7 @@
         <v>0.878488372093023</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -14310,7 +14370,7 @@
         <v>0.82936046511627903</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -14333,7 +14393,7 @@
         <v>0.75730994152046704</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -14356,7 +14416,7 @@
         <v>0.84424242424242402</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -14379,7 +14439,7 @@
         <v>0.86788617886178798</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -14402,7 +14462,7 @@
         <v>0.85906862745098</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -14425,7 +14485,7 @@
         <v>0.80872093023255798</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -20604,10 +20664,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B8CFE-CE27-48D0-99D6-D06E8FAF20D9}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20623,10 +20683,10 @@
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20651,20 +20711,24 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -20695,23 +20759,24 @@
       <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>0.66265060240963802</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>0.69047619047619002</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>0.36585365853658502</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <v>0.78281068524970898</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -20739,23 +20804,24 @@
       <c r="J3" t="s">
         <v>97</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>0.80722891566264998</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>0.69047619047619002</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>7.3170731707316999E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>0.808652729384436</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -20783,23 +20849,26 @@
       <c r="J4" t="s">
         <v>99</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>0.86746987951807197</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>0.83333333333333304</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>0.87166085946573701</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8">
+        <v>4.2669754473986202E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -20825,7 +20894,7 @@
         <v>0.89883040935672498</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -20851,7 +20920,7 @@
         <v>0.86507444168734404</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -20877,7 +20946,7 @@
         <v>0.89732142857142805</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -20903,7 +20972,7 @@
         <v>0.82053571428571404</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -20929,7 +20998,7 @@
         <v>0.95087209302325504</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -20955,7 +21024,7 @@
         <v>0.915116279069767</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -20981,7 +21050,7 @@
         <v>0.87865497076023302</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -21007,7 +21076,7 @@
         <v>0.82393939393939397</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -21033,7 +21102,7 @@
         <v>0.83246225319395994</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -21059,7 +21128,7 @@
         <v>0.88633578431372495</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -21085,7 +21154,7 @@
         <v>0.89098837209302295</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -21840,19 +21909,19 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45">
@@ -22895,6 +22964,14 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f>PEARSON(C2:C84,D2:D84)</f>
+        <v>0.20018249050098397</v>
+      </c>
+      <c r="F88">
+        <f>PEARSON(F2:F84,G2:G84)</f>
+        <v>-9.3013591528384107E-2</v>
+      </c>
       <c r="I88">
         <v>0.89169570267131204</v>
       </c>
@@ -27466,5 +27543,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Solution3/Results/Bootstrapping Results.xlsx
+++ b/Solution3/Results/Bootstrapping Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71788E19-F7A3-4088-A7F5-B5D263761019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A934EF3-1659-41B4-81F1-AC207BD0D1B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoCrop Original" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Cropped Facing Same Dir" sheetId="4" r:id="rId4"/>
     <sheet name="Cropped All MirrorRotations" sheetId="5" r:id="rId5"/>
     <sheet name="NoCrop All MirrorRotations" sheetId="6" r:id="rId6"/>
+    <sheet name="LGBM scores with Inceptionv4" sheetId="7" r:id="rId7"/>
+    <sheet name="LGBM scores with VGG19" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="140">
   <si>
     <t>Image</t>
   </si>
@@ -400,12 +402,63 @@
   <si>
     <t>Machine+Radiologist+PCA(83)</t>
   </si>
+  <si>
+    <t>Machine(No crop)</t>
+  </si>
+  <si>
+    <t>Machine+Radiologist(No crop)</t>
+  </si>
+  <si>
+    <t>Machine(No crop same dir)</t>
+  </si>
+  <si>
+    <t>Machine+Radiologist(No crop same dir)</t>
+  </si>
+  <si>
+    <t>Machine(Crop)</t>
+  </si>
+  <si>
+    <t>Machine+Radiologist(Crop)</t>
+  </si>
+  <si>
+    <t>Machine(Crop same dir)</t>
+  </si>
+  <si>
+    <t>Machine+Radiologist(Crop same dir)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>0.7988372093023256 to 0.9415204678362573</t>
+  </si>
+  <si>
+    <t>0.7096969696969697 to 0.8866279069767442</t>
+  </si>
+  <si>
+    <t>0.7377906976744186 to 0.9065040650406504</t>
+  </si>
+  <si>
+    <t>0.6812443727490995 to 0.872610294117647</t>
+  </si>
+  <si>
+    <t>0.6154761904761905 to 0.8273255813953488</t>
+  </si>
+  <si>
+    <t>0.6554373522458629 to 0.8531139835487662</t>
+  </si>
+  <si>
+    <t>0.6958333333333333 to 0.8854166666666667</t>
+  </si>
+  <si>
+    <t>0.6321138211382114 to 0.8378378378378378</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +489,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,7 +582,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -527,6 +597,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -27580,7 +27655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A154C-2D9E-4795-A2A3-25ACAD2037BE}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -34488,7 +34563,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L1" sqref="L1:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41388,4 +41463,461 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7316FA4A-6216-460C-BD03-91A9D3AC2A27}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D2" s="8">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.808652729384436</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.74332171893147503</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.78313253012048101</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.5909827402117803E-2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.61445783132530096</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.68118466898954699</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.80487804878048697</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.7384989128586602E-2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.56626506024096301</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.56097560975609695</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.62485481997677095</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.67469879518072196</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.787456445993031</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.82837220275769E-2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.67595818815330999</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.73493975903614395</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.292682926829268</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.82810685249709604</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.1748983608351803E-2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF770C3B-E22F-4DB6-8CD6-57FAF4235673}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D2" s="8">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.808652729384436</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.53012048192771</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.54761904761904701</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.55400696864111498</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.73983739837398299</v>
+      </c>
+      <c r="F4" s="17">
+        <v>5.2181565830162702E-2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.63855421686746905</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.65853658536585302</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.74698795180722799</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.80139372822299604</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.8627638823700997E-2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.53012048192771</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.59523809523809501</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.53658536585365801</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.51567944250871001</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.63855421686746905</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.72415795586527298</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5.425109027076E-2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.64634146341463405</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.66265060240963802</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.76335656213704906</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.14714105723727E-2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Solution3/Results/Bootstrapping Results.xlsx
+++ b/Solution3/Results/Bootstrapping Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A934EF3-1659-41B4-81F1-AC207BD0D1B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0344AB-7453-41DE-ABC1-EBA42E24001E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoCrop Original" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="Cropped Facing Same Dir" sheetId="4" r:id="rId4"/>
     <sheet name="Cropped All MirrorRotations" sheetId="5" r:id="rId5"/>
     <sheet name="NoCrop All MirrorRotations" sheetId="6" r:id="rId6"/>
-    <sheet name="LGBM scores with Inceptionv4" sheetId="7" r:id="rId7"/>
+    <sheet name="scores with Inceptionv4" sheetId="7" r:id="rId7"/>
     <sheet name="LGBM scores with VGG19" sheetId="8" r:id="rId8"/>
+    <sheet name="Inserting radio input" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="162">
   <si>
     <t>Image</t>
   </si>
@@ -453,6 +454,72 @@
   <si>
     <t>0.6321138211382114 to 0.8378378378378378</t>
   </si>
+  <si>
+    <t>LGBM</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>0.5996503496503496 to 0.8226190476190476</t>
+  </si>
+  <si>
+    <t>0.5573099415204679 to 0.7950058072009291</t>
+  </si>
+  <si>
+    <t>0.6280846063454759 to 0.8463385354141657</t>
+  </si>
+  <si>
+    <t>0.6019388954171563 to 0.8362573099415205</t>
+  </si>
+  <si>
+    <t>VGG</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Crop same dir</t>
+  </si>
+  <si>
+    <t>No Crop</t>
+  </si>
+  <si>
+    <t>No Crop same dir</t>
+  </si>
+  <si>
+    <t>Crop combined features</t>
+  </si>
+  <si>
+    <t>No Crop combined features</t>
+  </si>
+  <si>
+    <t>0.5914918414918414 to 0.804093567251462</t>
+  </si>
+  <si>
+    <t>LGBM+Inception</t>
+  </si>
+  <si>
+    <t>LGBM+VGG19</t>
+  </si>
+  <si>
+    <t>LGBM+Inception+PCA</t>
+  </si>
+  <si>
+    <t>0.7232142857142857 to 0.8989547038327527</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6348837209302326 to 0.8593939393939394</t>
+  </si>
+  <si>
+    <t>0.7044917257683214 to 0.8894736842105263</t>
+  </si>
+  <si>
+    <t>0.760047281323877 to 0.9394829612220916</t>
+  </si>
 </sst>
 </file>
 
@@ -511,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,8 +618,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -575,6 +648,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -582,7 +666,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -602,6 +686,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -27656,7 +27743,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27700,21 +27787,8 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>114</v>
+      <c r="L1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -27745,22 +27819,22 @@
       <c r="J2" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0.62650602409638501</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0.31707317073170699</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0.68292682926829196</v>
-      </c>
-      <c r="Q2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -27791,19 +27865,19 @@
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M3" s="8">
-        <v>0.80722891566264998</v>
+        <v>0.62650602409638501</v>
       </c>
       <c r="N3" s="8">
-        <v>0.69047619047619002</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="O3" s="8">
-        <v>7.3170731707316999E-2</v>
+        <v>0.31707317073170699</v>
       </c>
       <c r="P3" s="8">
-        <v>0.808652729384436</v>
+        <v>0.68292682926829196</v>
       </c>
       <c r="Q3" s="8"/>
     </row>
@@ -27836,23 +27910,21 @@
         <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M4" s="8">
-        <v>0.83132530120481896</v>
+        <v>0.80722891566264998</v>
       </c>
       <c r="N4" s="8">
-        <v>0.78571428571428503</v>
+        <v>0.69047619047619002</v>
       </c>
       <c r="O4" s="8">
-        <v>0.12195121951219499</v>
+        <v>7.3170731707316999E-2</v>
       </c>
       <c r="P4" s="8">
-        <v>0.78106852497096402</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>5.7411539855967302E-2</v>
-      </c>
+        <v>0.808652729384436</v>
+      </c>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -27880,21 +27952,23 @@
         <v>0.63801169590643203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M5" s="8">
-        <v>0.69879518072289104</v>
+        <v>0.83132530120481896</v>
       </c>
       <c r="N5" s="8">
-        <v>0.5</v>
+        <v>0.78571428571428503</v>
       </c>
       <c r="O5" s="8">
-        <v>9.7560975609756101E-2</v>
+        <v>0.12195121951219499</v>
       </c>
       <c r="P5" s="8">
-        <v>0.78803716608594598</v>
-      </c>
-      <c r="Q5" s="8"/>
+        <v>0.78106852497096402</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>5.7411539855967302E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -27922,23 +27996,21 @@
         <v>0.82196029776674895</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" s="8">
-        <v>0.843373493975903</v>
+        <v>0.69879518072289104</v>
       </c>
       <c r="N6" s="8">
-        <v>0.73809523809523803</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="8">
-        <v>4.8780487804878002E-2</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="P6" s="8">
-        <v>0.83217189314750295</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>4.6942485644976398E-2</v>
-      </c>
+        <v>0.78803716608594598</v>
+      </c>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -27965,6 +28037,24 @@
       <c r="I7">
         <v>0.85892857142857104</v>
       </c>
+      <c r="L7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="O7" s="8">
+        <v>4.8780487804878002E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.83217189314750295</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>4.6942485644976398E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -28017,6 +28107,9 @@
       <c r="I9">
         <v>0.751162790697674</v>
       </c>
+      <c r="L9" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -28043,6 +28136,22 @@
       <c r="I10">
         <v>0.81744186046511602</v>
       </c>
+      <c r="L10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.44578313253011997</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.60975609756097504</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.49012775842044098</v>
+      </c>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -28069,6 +28178,24 @@
       <c r="I11">
         <v>0.66374269005847897</v>
       </c>
+      <c r="L11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.60240963855421603</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.70325203252032498</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>5.7105779172683203E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -28095,6 +28222,22 @@
       <c r="I12">
         <v>0.89212121212121198</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.36144578313253001</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.65853658536585302</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.32288037166085898</v>
+      </c>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -28121,6 +28264,24 @@
       <c r="I13">
         <v>0.68118466898954699</v>
       </c>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.48192771084337299</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.56097560975609695</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.57200929152148605</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>6.6516503872848201E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -28173,6 +28334,9 @@
       <c r="I15">
         <v>0.77732558139534802</v>
       </c>
+      <c r="L15" s="19" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -28199,8 +28363,24 @@
       <c r="I16">
         <v>0.67426900584795302</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.59036144578313199</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.61730545876887299</v>
+      </c>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
@@ -28225,8 +28405,26 @@
       <c r="I17">
         <v>0.73112659698025495</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.77108433734939696</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.219512195121951</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.75638792102206698</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>5.39806110124103E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -28251,8 +28449,24 @@
       <c r="I18">
         <v>0.889479905437352</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.62195121951219501</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -28277,8 +28491,26 @@
       <c r="I19">
         <v>0.78846153846153799</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.78313253012048101</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.19512195121951201</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.77293844367015097</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>5.3210732305960802E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -28304,7 +28536,7 @@
         <v>0.90639534883720896</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
@@ -28329,8 +28561,24 @@
       <c r="I21">
         <v>0.78613396004700298</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.57831325301204795</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.51219512195121897</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.60511033681765303</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
@@ -28355,8 +28603,26 @@
       <c r="I22">
         <v>0.77130852340936296</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.79500580720092895</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>4.77974284720835E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
@@ -28381,8 +28647,24 @@
       <c r="I23">
         <v>0.60872093023255802</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.60240963855421603</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.64750290360046403</v>
+      </c>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
@@ -28407,8 +28689,26 @@
       <c r="I24">
         <v>0.76627906976744098</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0.81475029036004598</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>4.6153206029136799E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
@@ -28434,7 +28734,7 @@
         <v>0.79825581395348799</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
@@ -28460,7 +28760,7 @@
         <v>0.80755813953488298</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
@@ -28486,7 +28786,7 @@
         <v>0.731578947368421</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
@@ -28512,7 +28812,7 @@
         <v>0.79196217494089804</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -28538,7 +28838,7 @@
         <v>0.75958188153310102</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
@@ -28564,7 +28864,7 @@
         <v>0.81636363636363596</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>32</v>
       </c>
@@ -28590,7 +28890,7 @@
         <v>0.70930232558139505</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -34563,7 +34863,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q6"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34924,6 +35224,9 @@
       <c r="I9">
         <v>0.77703488372092999</v>
       </c>
+      <c r="L9" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -34950,6 +35253,22 @@
       <c r="I10">
         <v>0.76860465116278998</v>
       </c>
+      <c r="L10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.51807228915662595</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.56736353077816504</v>
+      </c>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -34976,6 +35295,24 @@
       <c r="I11">
         <v>0.63070175438596499</v>
       </c>
+      <c r="L11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.63855421686746905</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.76364692218350705</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>5.0880753794589097E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -35002,6 +35339,22 @@
       <c r="I12">
         <v>0.79242424242424203</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.421686746987951</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.68292682926829196</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.31533101045296102</v>
+      </c>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -35027,6 +35380,24 @@
       </c>
       <c r="I13">
         <v>0.68176538908246198</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.654471544715447</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>5.94736184925551E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -41467,10 +41838,414 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7316FA4A-6216-460C-BD03-91A9D3AC2A27}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.80722891566264998</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D2" s="8">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.808652729384436</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.74332171893147503</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.78313253012048101</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.5909827402117803E-2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.61445783132530096</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.68118466898954699</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.80487804878048697</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.7384989128586602E-2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.56626506024096301</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.56097560975609695</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.62485481997677095</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.67469879518072196</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.787456445993031</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.82837220275769E-2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.67595818815330999</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.73493975903614395</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.292682926829268</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.82810685249709604</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.1748983608351803E-2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.57831325301204795</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.66957026713124201</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.74698795180722799</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.219512195121951</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.71718931475029002</v>
+      </c>
+      <c r="F13" s="17">
+        <v>5.68172470074116E-2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.63879210220673599</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.67653890824622498</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6.0942178219088802E-2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.60240963855421603</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.66550522648083599</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.74698795180722799</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.74245063879210205</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.6714269893129603E-2</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18">
+        <v>0.61445783132530096</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.66550522648083599</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.71084337349397497</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.72560975609756095</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.9414375826015199E-2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF770C3B-E22F-4DB6-8CD6-57FAF4235673}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41525,41 +42300,41 @@
         <v>123</v>
       </c>
       <c r="B3" s="8">
-        <v>0.686746987951807</v>
+        <v>0.53012048192771</v>
       </c>
       <c r="C3" s="8">
-        <v>0.71428571428571397</v>
+        <v>0.54761904761904701</v>
       </c>
       <c r="D3" s="8">
-        <v>0.34146341463414598</v>
+        <v>0.48780487804877998</v>
       </c>
       <c r="E3" s="8">
-        <v>0.74332171893147503</v>
+        <v>0.55400696864111498</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="15">
-        <v>0.78313253012048101</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.80952380952380898</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.24390243902438999</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.87804878048780499</v>
-      </c>
-      <c r="F4" s="15">
-        <v>3.5909827402117803E-2</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>132</v>
+      <c r="B4" s="17">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.73983739837398299</v>
+      </c>
+      <c r="F4" s="17">
+        <v>5.2181565830162702E-2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -41567,16 +42342,16 @@
         <v>125</v>
       </c>
       <c r="B5" s="8">
-        <v>0.61445783132530096</v>
+        <v>0.63855421686746905</v>
       </c>
       <c r="C5" s="8">
-        <v>0.66666666666666596</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="D5" s="8">
-        <v>0.439024390243902</v>
+        <v>0.48780487804877998</v>
       </c>
       <c r="E5" s="8">
-        <v>0.68118466898954699</v>
+        <v>0.65853658536585302</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -41586,22 +42361,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="8">
-        <v>0.686746987951807</v>
+        <v>0.74698795180722799</v>
       </c>
       <c r="C6" s="8">
-        <v>0.69047619047619002</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="D6" s="8">
-        <v>0.31707317073170699</v>
+        <v>0.36585365853658502</v>
       </c>
       <c r="E6" s="8">
-        <v>0.80487804878048697</v>
+        <v>0.80139372822299604</v>
       </c>
       <c r="F6" s="8">
-        <v>4.7384989128586602E-2</v>
+        <v>4.8627638823700997E-2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -41609,16 +42384,16 @@
         <v>127</v>
       </c>
       <c r="B7" s="8">
-        <v>0.56626506024096301</v>
+        <v>0.53012048192771</v>
       </c>
       <c r="C7" s="8">
-        <v>0.69047619047619002</v>
+        <v>0.59523809523809501</v>
       </c>
       <c r="D7" s="8">
-        <v>0.56097560975609695</v>
+        <v>0.53658536585365801</v>
       </c>
       <c r="E7" s="8">
-        <v>0.62485481997677095</v>
+        <v>0.51567944250871001</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -41628,22 +42403,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="8">
-        <v>0.67469879518072196</v>
+        <v>0.63855421686746905</v>
       </c>
       <c r="C8" s="8">
-        <v>0.76190476190476097</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="D8" s="8">
-        <v>0.41463414634146301</v>
+        <v>0.39024390243902402</v>
       </c>
       <c r="E8" s="8">
-        <v>0.787456445993031</v>
+        <v>0.72415795586527298</v>
       </c>
       <c r="F8" s="8">
-        <v>4.82837220275769E-2</v>
+        <v>5.425109027076E-2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -41654,13 +42429,13 @@
         <v>0.62650602409638501</v>
       </c>
       <c r="C9" s="8">
-        <v>0.69047619047619002</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="D9" s="8">
-        <v>0.439024390243902</v>
+        <v>0.36585365853658502</v>
       </c>
       <c r="E9" s="8">
-        <v>0.67595818815330999</v>
+        <v>0.64634146341463405</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -41670,43 +42445,42 @@
         <v>130</v>
       </c>
       <c r="B10" s="8">
-        <v>0.73493975903614395</v>
+        <v>0.66265060240963802</v>
       </c>
       <c r="C10" s="8">
-        <v>0.76190476190476097</v>
+        <v>0.64285714285714202</v>
       </c>
       <c r="D10" s="8">
-        <v>0.292682926829268</v>
+        <v>0.31707317073170699</v>
       </c>
       <c r="E10" s="8">
-        <v>0.82810685249709604</v>
+        <v>0.76335656213704906</v>
       </c>
       <c r="F10" s="8">
-        <v>4.1748983608351803E-2</v>
+        <v>5.14714105723727E-2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF770C3B-E22F-4DB6-8CD6-57FAF4235673}">
-  <dimension ref="A1:G10"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DAAAE-F486-4050-9A73-FCEB14C2F08D}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -41750,172 +42524,277 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.53012048192771</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.54761904761904701</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.48780487804877998</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.55400696864111498</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.62650602409638501</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.41463414634146301</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.73983739837398299</v>
-      </c>
-      <c r="F4" s="17">
-        <v>5.2181565830162702E-2</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>139</v>
+      <c r="A4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.66265060240963802</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.70150987224157901</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5.62332012651851E-2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.63855421686746905</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.76190476190476097</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.48780487804877998</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.65853658536585302</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.73493975903614395</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.81416957026713099</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4.5457730555914802E-2</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.74698795180722799</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.36585365853658502</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.80139372822299604</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4.8627638823700997E-2</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>138</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.53012048192771</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.59523809523809501</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.53658536585365801</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.51567944250871001</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.63855421686746905</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.39024390243902402</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.72415795586527298</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5.425109027076E-2</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9">
-        <v>0.62650602409638501</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.61904761904761896</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.36585365853658502</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.64634146341463405</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.66265060240963802</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.64285714285714202</v>
-      </c>
-      <c r="D10" s="8">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.78313253012048101</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.85888501742160195</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.5511864569845198E-2</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.77177700348431999</v>
+      </c>
+      <c r="F13" s="17">
+        <v>5.3826216130096999E-2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.69879518072289104</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D14" s="8">
         <v>0.31707317073170699</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.76335656213704906</v>
-      </c>
-      <c r="F10" s="8">
-        <v>5.14714105723727E-2</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="E14" s="8">
+        <v>0.79907084785133498</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4.57176362008909E-2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solution3/Results/Bootstrapping Results.xlsx
+++ b/Solution3/Results/Bootstrapping Results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0344AB-7453-41DE-ABC1-EBA42E24001E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1538941A-AC8D-4094-84FE-3C3BB967A2A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15015" yWindow="3645" windowWidth="27315" windowHeight="11505" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoCrop Original" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="scores with Inceptionv4" sheetId="7" r:id="rId7"/>
     <sheet name="LGBM scores with VGG19" sheetId="8" r:id="rId8"/>
     <sheet name="Inserting radio input" sheetId="9" r:id="rId9"/>
+    <sheet name="LGBM_Inceptionv4_NoCropSameDir" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="186">
   <si>
     <t>Image</t>
   </si>
@@ -520,6 +522,78 @@
   <si>
     <t>0.760047281323877 to 0.9394829612220916</t>
   </si>
+  <si>
+    <t>0.6976608187134503 to 0.894736842105263</t>
+  </si>
+  <si>
+    <t>0.6713124274099884 to 0.8839285714285715</t>
+  </si>
+  <si>
+    <t>0.6756756756756755 to 0.8930669800235018</t>
+  </si>
+  <si>
+    <t>0.7000000000000001 to 0.8783783783783784</t>
+  </si>
+  <si>
+    <t>0.791421856639248 to 0.9419279907084784</t>
+  </si>
+  <si>
+    <t>0.7255291005291006 to 0.9101654846335697</t>
+  </si>
+  <si>
+    <t>0.8234610917537747 to 0.9618096357226792</t>
+  </si>
+  <si>
+    <t>AUC = 0.8989547038327527</t>
+  </si>
+  <si>
+    <t>Avg AUC = 0.897445103750664</t>
+  </si>
+  <si>
+    <t>Stdev AUC = 0.03559399636821776</t>
+  </si>
+  <si>
+    <t>95% CI 0.8234610917537747 to 0.9618096357226792</t>
+  </si>
+  <si>
+    <t>LGBM+VGG19+PCA</t>
+  </si>
+  <si>
+    <t>0.6548619447779112 to 0.8610465116279069</t>
+  </si>
+  <si>
+    <t>0.6779100529100529 to 0.8763636363636365</t>
+  </si>
+  <si>
+    <t>0.658139534883721 to 0.8508771929824562</t>
+  </si>
+  <si>
+    <t>0.7005847953216374 to 0.8803571428571428</t>
+  </si>
+  <si>
+    <t>0.5999823736780259 to 0.8244309362446369</t>
+  </si>
+  <si>
+    <t>0.5625000000000001 to 0.7890442890442889</t>
+  </si>
+  <si>
+    <t>0.2944250871080139 to 0.5368421052631579</t>
+  </si>
+  <si>
+    <t>0.4755813953488372 to 0.7332549941245594</t>
+  </si>
+  <si>
+    <t>0.5915151515151515 to 0.8234610917537748</t>
+  </si>
+  <si>
+    <t>0.5199764982373678 to 0.7488344988344988</t>
+  </si>
+  <si>
+    <t>0.5575793184488836 to 0.7895348837209303</t>
+  </si>
+  <si>
+    <t>0.7005847953216374 to 0.891812865497076</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +698,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -666,7 +752,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -689,6 +775,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -7599,12 +7692,6568 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8441A184-9FAF-429A-B449-7F7ACFDE0A76}">
+  <dimension ref="A1:J1001"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.102428222976213</v>
+      </c>
+      <c r="G2">
+        <v>0.462857142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2">
+        <v>0.88313953488371999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.11231934456951</v>
+      </c>
+      <c r="G3">
+        <v>0.305714285999999</v>
+      </c>
+      <c r="I3">
+        <v>0.90654761904761905</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.12666580293164501</v>
+      </c>
+      <c r="G4">
+        <v>0.54666666600000002</v>
+      </c>
+      <c r="I4">
+        <v>0.85416666666666596</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4.9251276695124101E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.40571428599999898</v>
+      </c>
+      <c r="I5">
+        <v>0.96608187134502899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.106523706848587</v>
+      </c>
+      <c r="G6">
+        <v>0.182857142</v>
+      </c>
+      <c r="I6">
+        <v>0.97084367245657499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4.9999252970716099E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.86964285714285705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.143824252042521</v>
+      </c>
+      <c r="G8">
+        <v>0.29857142799999897</v>
+      </c>
+      <c r="I8">
+        <v>0.82857142857142796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.18236122639319</v>
+      </c>
+      <c r="G9">
+        <v>0.55466666599999903</v>
+      </c>
+      <c r="I9">
+        <v>0.89709302325581297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.21652412558520401</v>
+      </c>
+      <c r="G10">
+        <v>0.32666666599999999</v>
+      </c>
+      <c r="I10">
+        <v>0.88837209302325504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.21785455014134</v>
+      </c>
+      <c r="G11">
+        <v>0.342857142</v>
+      </c>
+      <c r="I11">
+        <v>0.86783625730994096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.10942219683945099</v>
+      </c>
+      <c r="G12" s="25">
+        <v>6.6666665999999902E-2</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.87090909090909097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9.6620408945086597E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.247692308</v>
+      </c>
+      <c r="I13">
+        <v>0.85423925667828104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5.4809283949937601E-2</v>
+      </c>
+      <c r="G14">
+        <v>4.14285719999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.91911764705882304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.13743565210230099</v>
+      </c>
+      <c r="G15">
+        <v>0.47538461599999998</v>
+      </c>
+      <c r="I15">
+        <v>0.877325581395348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.16840653847001599</v>
+      </c>
+      <c r="G16">
+        <v>0.54933333399999995</v>
+      </c>
+      <c r="I16">
+        <v>0.88304093567251396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.13476922480106901</v>
+      </c>
+      <c r="G17" s="25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.872241579558652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.10172796591365001</v>
+      </c>
+      <c r="G18">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.91134751773049605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.154781058875337</v>
+      </c>
+      <c r="G19">
+        <v>0.347142858</v>
+      </c>
+      <c r="I19">
+        <v>0.91958041958041903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>6.8158221165587105E-2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.61833333399999901</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.84941860465116203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.17521572583143899</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.34153846199999999</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0.88542890716803702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.7003814482617698E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.37066666599999898</v>
+      </c>
+      <c r="I22">
+        <v>0.88055222088835505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>8.4737958384959594E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.107999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.89709302325581397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.12116109595923499</v>
+      </c>
+      <c r="G24">
+        <v>0.62714285800000003</v>
+      </c>
+      <c r="I24">
+        <v>0.84593023255813904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.123319834650976</v>
+      </c>
+      <c r="G25">
+        <v>0.55333333399999896</v>
+      </c>
+      <c r="I25">
+        <v>0.91860465116279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>6.51932627761274E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.37230769199999902</v>
+      </c>
+      <c r="I26">
+        <v>0.91046511627906901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.21124161688646E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.104</v>
+      </c>
+      <c r="I27">
+        <v>0.94035087719298205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.20097157025576501</v>
+      </c>
+      <c r="G28">
+        <v>0.24153846200000001</v>
+      </c>
+      <c r="I28">
+        <v>0.90307328605200898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>6.7780119685616702E-2</v>
+      </c>
+      <c r="G29" s="26">
+        <v>0.31733333399999902</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0.89024390243902396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3.7214416977406101E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I30">
+        <v>0.95151515151515098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>7.3595648882083795E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.62142857200000001</v>
+      </c>
+      <c r="I31">
+        <v>0.92383720930232505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.21205284728354601</v>
+      </c>
+      <c r="G32">
+        <v>0.157142858</v>
+      </c>
+      <c r="I32">
+        <v>0.91162790697674401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>9.0733027748033199E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I33">
+        <v>0.87191539365452397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>5.0414121044935097E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.54533333399999995</v>
+      </c>
+      <c r="I34">
+        <v>0.86787878787878703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>5.3961168464618701E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.62142857200000001</v>
+      </c>
+      <c r="I35">
+        <v>0.86491228070175397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>6.2049226918957499E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.53857142799999902</v>
+      </c>
+      <c r="I36">
+        <v>0.91656874265569899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2.8788448287469601E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.49333333399999901</v>
+      </c>
+      <c r="I37">
+        <v>0.83216374269005799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>5.0635968548240901E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.133333334</v>
+      </c>
+      <c r="I38">
+        <v>0.90136476426798995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.19568067300904099</v>
+      </c>
+      <c r="G39">
+        <v>0.40142857199999998</v>
+      </c>
+      <c r="I39">
+        <v>0.88811188811188801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.17372322947423799</v>
+      </c>
+      <c r="G40">
+        <v>0.55733333399999996</v>
+      </c>
+      <c r="I40">
+        <v>0.86585365853658502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.10255934457994401</v>
+      </c>
+      <c r="G41">
+        <v>0.42307692400000002</v>
+      </c>
+      <c r="I41">
+        <v>0.89069767441860404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1.6999014210703701E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.15428571399999899</v>
+      </c>
+      <c r="I42">
+        <v>0.91687344913151303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.16893586318287401</v>
+      </c>
+      <c r="G43">
+        <v>0.44571428599999902</v>
+      </c>
+      <c r="I43">
+        <v>0.88269454123112601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="27">
+        <v>1</v>
+      </c>
+      <c r="C44" s="27">
+        <v>1</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0.13511827146463701</v>
+      </c>
+      <c r="G44" s="27">
+        <v>0.375384616</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0.969858156028368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.16271594141982401</v>
+      </c>
+      <c r="G45">
+        <v>0.59285714199999995</v>
+      </c>
+      <c r="I45">
+        <v>0.96386946386946304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4.9373965791750197E-3</v>
+      </c>
+      <c r="G46">
+        <v>0.39571428599999903</v>
+      </c>
+      <c r="I46">
+        <v>0.91802325581395305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.13048231079493899</v>
+      </c>
+      <c r="G47">
+        <v>0.56666666600000004</v>
+      </c>
+      <c r="I47">
+        <v>0.94912280701754304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="25">
+        <v>1</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="25">
+        <v>9.4242403896334093E-3</v>
+      </c>
+      <c r="G48" s="25">
+        <v>0.29428571399999998</v>
+      </c>
+      <c r="I48" s="25">
+        <v>0.88559814169570195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0.130998096856667</v>
+      </c>
+      <c r="G49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.952996474735605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.17813651263209199</v>
+      </c>
+      <c r="G50">
+        <v>0.60666666599999997</v>
+      </c>
+      <c r="I50">
+        <v>0.936120789779326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>6.4255912698861301E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.18266666599999901</v>
+      </c>
+      <c r="I51">
+        <v>0.88023255813953405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0.22587421598143601</v>
+      </c>
+      <c r="G52">
+        <v>2.9333333999999898E-2</v>
+      </c>
+      <c r="I52">
+        <v>0.89860139860139798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0.12880706888462401</v>
+      </c>
+      <c r="G53">
+        <v>0.39714285799999999</v>
+      </c>
+      <c r="I53">
+        <v>0.89418604651162703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>7.0474329220097706E-2</v>
+      </c>
+      <c r="G54">
+        <v>0.62428571399999999</v>
+      </c>
+      <c r="I54">
+        <v>0.92857142857142805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0.140547429766091</v>
+      </c>
+      <c r="G55">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="I55">
+        <v>0.92209302325581399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="27">
+        <v>1</v>
+      </c>
+      <c r="C56" s="27">
+        <v>1</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27">
+        <v>0.148076244642946</v>
+      </c>
+      <c r="G56" s="27">
+        <v>2.1333333999999898E-2</v>
+      </c>
+      <c r="I56" s="27">
+        <v>0.87558139534883705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0.15852439196373799</v>
+      </c>
+      <c r="G57">
+        <v>0.22</v>
+      </c>
+      <c r="I57">
+        <v>0.85520094562647697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.16209302606859</v>
+      </c>
+      <c r="G58">
+        <v>0.16666666599999999</v>
+      </c>
+      <c r="I58">
+        <v>0.92009400705052802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0.131172060154672</v>
+      </c>
+      <c r="G59">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I59">
+        <v>0.94093567251461896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0.17759428329893701</v>
+      </c>
+      <c r="G60">
+        <v>0.28923077000000003</v>
+      </c>
+      <c r="I60">
+        <v>0.87321428571428505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="27">
+        <v>1</v>
+      </c>
+      <c r="C61" s="27">
+        <v>1</v>
+      </c>
+      <c r="D61" s="27">
+        <v>0</v>
+      </c>
+      <c r="F61" s="27">
+        <v>2.93325449140979E-2</v>
+      </c>
+      <c r="G61" s="27">
+        <v>4.6153839999999403E-3</v>
+      </c>
+      <c r="I61" s="27">
+        <v>0.96180963572267897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="26">
+        <v>1</v>
+      </c>
+      <c r="C62" s="26">
+        <v>0</v>
+      </c>
+      <c r="D62" s="26">
+        <v>1</v>
+      </c>
+      <c r="F62" s="26">
+        <v>1.1191744616593601E-2</v>
+      </c>
+      <c r="G62" s="26">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="I62" s="26">
+        <v>0.87953216374269005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0.117034905117876</v>
+      </c>
+      <c r="G63">
+        <v>0.08</v>
+      </c>
+      <c r="I63">
+        <v>0.77874564459930296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0.14016443469204801</v>
+      </c>
+      <c r="G64">
+        <v>0.20533333400000001</v>
+      </c>
+      <c r="I64">
+        <v>0.94476744186046502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0.11756329315441701</v>
+      </c>
+      <c r="G65">
+        <v>0.342857142</v>
+      </c>
+      <c r="I65">
+        <v>0.91245593419506399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0.21459572254562401</v>
+      </c>
+      <c r="G66">
+        <v>0.27428571399999901</v>
+      </c>
+      <c r="I66">
+        <v>0.85672514619883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0.10558325080426301</v>
+      </c>
+      <c r="G67">
+        <v>0.65428571400000002</v>
+      </c>
+      <c r="I67">
+        <v>0.89071680376028195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>9.1546215822475796E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I68">
+        <v>0.88304093567251396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0</v>
+      </c>
+      <c r="D69" s="25">
+        <v>0</v>
+      </c>
+      <c r="F69" s="25">
+        <v>4.5964915500611297E-2</v>
+      </c>
+      <c r="G69" s="25">
+        <v>0.22769230800000001</v>
+      </c>
+      <c r="I69" s="25">
+        <v>0.856562137049941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0.204324761077774</v>
+      </c>
+      <c r="G70">
+        <v>0.57428571399999995</v>
+      </c>
+      <c r="I70">
+        <v>0.860520094562647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0.12033095868503201</v>
+      </c>
+      <c r="G71">
+        <v>0.745714286</v>
+      </c>
+      <c r="I71">
+        <v>0.95571095571095499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>9.6420527519688701E-2</v>
+      </c>
+      <c r="G72">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I72">
+        <v>0.91162790697674401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>7.2784856941975506E-2</v>
+      </c>
+      <c r="G73">
+        <v>0.42266666600000002</v>
+      </c>
+      <c r="I73">
+        <v>0.90930232558139501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>5.6929496095955601E-2</v>
+      </c>
+      <c r="G74">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="I74">
+        <v>0.85954381752701003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="27">
+        <v>1</v>
+      </c>
+      <c r="C75" s="27">
+        <v>1</v>
+      </c>
+      <c r="D75" s="27">
+        <v>0</v>
+      </c>
+      <c r="F75" s="27">
+        <v>5.7238604287406201E-2</v>
+      </c>
+      <c r="G75" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="I75" s="27">
+        <v>0.90599294947121001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0.23964060482941399</v>
+      </c>
+      <c r="G76">
+        <v>4.8571428E-2</v>
+      </c>
+      <c r="I76">
+        <v>0.87965116279069699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0.244216252603429</v>
+      </c>
+      <c r="G77">
+        <v>0.27</v>
+      </c>
+      <c r="I77">
+        <v>0.90951821386603904</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1</v>
+      </c>
+      <c r="C78" s="25">
+        <v>0</v>
+      </c>
+      <c r="D78" s="25">
+        <v>0</v>
+      </c>
+      <c r="F78" s="25">
+        <v>0.106685791722597</v>
+      </c>
+      <c r="G78" s="25">
+        <v>0.13866666599999999</v>
+      </c>
+      <c r="I78" s="25">
+        <v>0.90535714285714197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1</v>
+      </c>
+      <c r="C79" s="25">
+        <v>0</v>
+      </c>
+      <c r="D79" s="25">
+        <v>0</v>
+      </c>
+      <c r="F79" s="25">
+        <v>6.87948521275491E-2</v>
+      </c>
+      <c r="G79" s="25">
+        <v>0.152307691999999</v>
+      </c>
+      <c r="I79" s="25">
+        <v>0.91929824561403495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0.179690782791702</v>
+      </c>
+      <c r="G80">
+        <v>0.13285714200000001</v>
+      </c>
+      <c r="I80">
+        <v>0.96004700352526395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="27">
+        <v>1</v>
+      </c>
+      <c r="C81" s="27">
+        <v>1</v>
+      </c>
+      <c r="D81" s="27">
+        <v>0</v>
+      </c>
+      <c r="F81" s="27">
+        <v>1.47426454625598E-3</v>
+      </c>
+      <c r="G81" s="27">
+        <v>0.48285714200000002</v>
+      </c>
+      <c r="I81" s="27">
+        <v>0.92132867132867102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0.11367170014922701</v>
+      </c>
+      <c r="G82">
+        <v>0.118666666</v>
+      </c>
+      <c r="I82">
+        <v>0.84320557491289105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="27">
+        <v>1</v>
+      </c>
+      <c r="C83" s="27">
+        <v>1</v>
+      </c>
+      <c r="D83" s="27">
+        <v>0</v>
+      </c>
+      <c r="F83" s="27">
+        <v>3.1839732209142102E-2</v>
+      </c>
+      <c r="G83" s="27">
+        <v>5.5999999999999897E-2</v>
+      </c>
+      <c r="I83" s="27">
+        <v>0.88606060606060599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1</v>
+      </c>
+      <c r="C84" s="25">
+        <v>0</v>
+      </c>
+      <c r="D84" s="25">
+        <v>0</v>
+      </c>
+      <c r="F84" s="25">
+        <v>0.151058953001074</v>
+      </c>
+      <c r="G84" s="25">
+        <v>0.21714285799999999</v>
+      </c>
+      <c r="I84" s="25">
+        <v>0.91286549707602305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>0.87916666666666599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>0.87757575757575701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>0.93517406962785099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>0.91637630662020897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>0.83449477351916301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>0.94148936170212705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>0.83100233100233101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>0.89069767441860404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>0.92339181286549699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>0.88355342136854698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>0.87456445993031295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>0.82634032634032595</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>0.88771712158808902</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>0.90116959064327395</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>0.86686046511627901</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>0.90384615384615297</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>0.90766550522648004</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>0.904428904428904</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>0.83625730994152003</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>0.92499999999999905</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>0.89007092198581494</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>0.89302325581395303</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>0.93154761904761896</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>0.90189125295508199</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>0.91774383078730903</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>0.93243243243243201</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>0.91578947368421004</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>0.84534883720930198</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>0.92198581560283599</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>0.95348837209302295</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>0.95121951219512102</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>0.85888501742160195</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>0.90592334494773497</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>0.879432624113475</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>0.89140534262485405</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>0.93356643356643298</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>0.878488372093023</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>0.93023255813953398</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>0.93662790697674403</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>0.85547785547785504</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>0.91958041958041903</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>0.91016548463356906</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>0.94065804935370101</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>0.86032388663967596</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>0.933928571428571</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>0.84101654846335705</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>0.87818181818181795</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>0.88888888888888795</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>0.88630952380952299</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>0.89181286549707595</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>0.88869047619047603</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>0.90360046457607401</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>0.94709302325581302</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>0.84909090909090901</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>0.919767441860465</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>0.85898942420681501</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>0.91988304093567197</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>0.87965260545905699</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>0.87309941520467804</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>0.89716312056737502</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>0.85487661574618001</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>0.89837398373983701</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>0.91309523809523796</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>0.91104651162790695</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>0.88690476190476197</v>
+      </c>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>0.90416666666666601</v>
+      </c>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>0.92514619883040905</v>
+      </c>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>0.88501742160278696</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>0.829239766081871</v>
+      </c>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>0.91480611045828397</v>
+      </c>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>0.83197674418604595</v>
+      </c>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>0.81169590643274803</v>
+      </c>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>0.93184488836662704</v>
+      </c>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>0.87179487179487103</v>
+      </c>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>0.925667828106852</v>
+      </c>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>0.87572590011614404</v>
+      </c>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>0.88095238095238004</v>
+      </c>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>0.86274509803921495</v>
+      </c>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>0.84633853541416504</v>
+      </c>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>0.89365452408930601</v>
+      </c>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>0.89024390243902396</v>
+      </c>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>0.83976608187134505</v>
+      </c>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>0.89255702280912297</v>
+      </c>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>0.90534262485481998</v>
+      </c>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>0.88011695906432696</v>
+      </c>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>0.91228070175438603</v>
+      </c>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>0.86569767441860401</v>
+      </c>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>0.81488095238095204</v>
+      </c>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>0.92966903073286</v>
+      </c>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>0.91069330199764897</v>
+      </c>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>0.93452380952380898</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>0.812499999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>0.88479532163742602</v>
+      </c>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>0.81046511627906903</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>0.90465116279069702</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>0.87108013937282203</v>
+      </c>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>0.84606060606060596</v>
+      </c>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>0.86111111111111105</v>
+      </c>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>0.86469221835075405</v>
+      </c>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>0.88578088578088499</v>
+      </c>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>0.92093023255813899</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>0.83433373349339701</v>
+      </c>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>0.92325581395348799</v>
+      </c>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>0.89365452408930601</v>
+      </c>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>0.93670150987224099</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>0.87660818713450195</v>
+      </c>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>0.91520467836257302</v>
+      </c>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>0.93298368298368295</v>
+      </c>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>0.85290697674418603</v>
+      </c>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>0.877468060394889</v>
+      </c>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>0.90305522914218495</v>
+      </c>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>0.91899766899766899</v>
+      </c>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>0.93830787309048103</v>
+      </c>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>0.88070175438596399</v>
+      </c>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>0.91315136476426795</v>
+      </c>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>0.88269454123112601</v>
+      </c>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>0.90465116279069702</v>
+      </c>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>0.96190476190476104</v>
+      </c>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>0.89360465116278998</v>
+      </c>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>0.76595744680850997</v>
+      </c>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>0.94947735191637594</v>
+      </c>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>0.92303030303030298</v>
+      </c>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>0.92046783625730899</v>
+      </c>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>0.86734693877550995</v>
+      </c>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>0.957558139534883</v>
+      </c>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>0.92865497076023396</v>
+      </c>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <v>0.83914053426248503</v>
+      </c>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>0.79515151515151505</v>
+      </c>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>0.87340301974448298</v>
+      </c>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>0.89976689976689905</v>
+      </c>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <v>0.91637426900584795</v>
+      </c>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>0.95828437132784905</v>
+      </c>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>0.90501165501165504</v>
+      </c>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>0.93557919621749397</v>
+      </c>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>0.91252955082742304</v>
+      </c>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>0.93272727272727196</v>
+      </c>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>0.86315789473684201</v>
+      </c>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>0.83681765389082396</v>
+      </c>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>0.88720930232558104</v>
+      </c>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>0.93473193473193406</v>
+      </c>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>0.90892857142857097</v>
+      </c>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>0.94069767441860397</v>
+      </c>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>0.91289198606271704</v>
+      </c>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>0.90119047619047599</v>
+      </c>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>0.89314750290360001</v>
+      </c>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>0.85614035087719298</v>
+      </c>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>0.90384615384615297</v>
+      </c>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <v>0.88037166085946506</v>
+      </c>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>0.88403263403263399</v>
+      </c>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>0.93457382953181201</v>
+      </c>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>0.85946573751451705</v>
+      </c>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>0.91812865497076002</v>
+      </c>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>0.84692671394799002</v>
+      </c>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>0.94858156028368701</v>
+      </c>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <v>0.92339181286549699</v>
+      </c>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>0.90290697674418596</v>
+      </c>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>0.92257683215130004</v>
+      </c>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>0.94285714285714195</v>
+      </c>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>0.88501742160278696</v>
+      </c>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>0.83508158508158503</v>
+      </c>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>0.88111888111888104</v>
+      </c>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>0.94851116625310095</v>
+      </c>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>0.96109175377468004</v>
+      </c>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>0.92973286875725902</v>
+      </c>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>0.92218350754936096</v>
+      </c>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>0.911904761904761</v>
+      </c>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>0.92046783625730999</v>
+      </c>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <v>0.93757575757575695</v>
+      </c>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>0.83040935672514604</v>
+      </c>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <v>0.83859649122807001</v>
+      </c>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <v>0.90535714285714197</v>
+      </c>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>0.88647642679900696</v>
+      </c>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>0.96167247386759502</v>
+      </c>
+    </row>
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>0.90268065268065201</v>
+      </c>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>0.878571428571428</v>
+      </c>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>0.90696278511404504</v>
+      </c>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>0.87935174069627797</v>
+      </c>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>0.90238095238095195</v>
+      </c>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>0.88245614035087705</v>
+      </c>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>0.85365853658536595</v>
+      </c>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>0.90661938534278896</v>
+      </c>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>0.92573099415204596</v>
+      </c>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>0.90755813953488296</v>
+      </c>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>0.91476590636254496</v>
+      </c>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>0.88559814169570195</v>
+      </c>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>0.93419506462984703</v>
+      </c>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>0.91309523809523796</v>
+      </c>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <v>0.87108013937282203</v>
+      </c>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>0.914218566392479</v>
+      </c>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>0.91899766899766899</v>
+      </c>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>0.86140350877192895</v>
+      </c>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>0.79847238542890697</v>
+      </c>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>0.88837209302325504</v>
+      </c>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <v>0.87074030552291404</v>
+      </c>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <v>0.84032634032634002</v>
+      </c>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>0.91258741258741205</v>
+      </c>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <v>0.89975990396158401</v>
+      </c>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <v>0.95232558139534795</v>
+      </c>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <v>0.90384615384615297</v>
+      </c>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>0.871929824561403</v>
+      </c>
+    </row>
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>0.867715617715617</v>
+      </c>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>0.93735224586288401</v>
+      </c>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>0.84869976359337995</v>
+      </c>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I290">
+        <v>0.85321637426900498</v>
+      </c>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>0.873837209302325</v>
+      </c>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>0.89860139860139798</v>
+      </c>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>0.86353077816492396</v>
+      </c>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>0.90348837209302302</v>
+      </c>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>0.909407665505226</v>
+      </c>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>0.84869976359337995</v>
+      </c>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>0.88355342136854698</v>
+      </c>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>0.91228070175438503</v>
+      </c>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>0.88652482269503496</v>
+      </c>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>0.87074030552291404</v>
+      </c>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>0.84378629500580704</v>
+      </c>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>0.88711583924349802</v>
+      </c>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>0.88424242424242405</v>
+      </c>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>0.82256169212690899</v>
+      </c>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <v>0.88095238095238004</v>
+      </c>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <v>0.92624854819976699</v>
+      </c>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <v>0.94385342789598103</v>
+      </c>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>0.82575757575757502</v>
+      </c>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <v>0.93554006968641101</v>
+      </c>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>0.90423031727379499</v>
+      </c>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>0.81309523809523798</v>
+      </c>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>0.86315789473684201</v>
+      </c>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>0.92540792540792505</v>
+      </c>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>0.91345029239765996</v>
+      </c>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>0.90364277320799002</v>
+      </c>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>0.969447708578143</v>
+      </c>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>0.84865900383141701</v>
+      </c>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>0.92479435957696798</v>
+      </c>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>0.893728222996515</v>
+      </c>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>0.96758703481392505</v>
+      </c>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>0.878571428571428</v>
+      </c>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>0.87688734030197402</v>
+      </c>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <v>0.89757575757575703</v>
+      </c>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>0.85639534883720903</v>
+      </c>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <v>0.93690476190476102</v>
+      </c>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>0.95348837209302295</v>
+      </c>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>0.92142857142857104</v>
+      </c>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>0.80581395348837204</v>
+      </c>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>0.89375750300120005</v>
+      </c>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>0.93379790940766505</v>
+      </c>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>0.87703962703962701</v>
+      </c>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>0.93006993006993</v>
+      </c>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>0.92334494773519105</v>
+      </c>
+    </row>
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>0.92631578947368398</v>
+      </c>
+    </row>
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>0.91986062717770001</v>
+      </c>
+    </row>
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <v>0.872674418604651</v>
+      </c>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <v>0.83566433566433496</v>
+      </c>
+    </row>
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <v>0.87062937062936996</v>
+      </c>
+    </row>
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I339">
+        <v>0.87765957446808496</v>
+      </c>
+    </row>
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <v>0.92456140350877103</v>
+      </c>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I341">
+        <v>0.87995337995337997</v>
+      </c>
+    </row>
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <v>0.92163742690058403</v>
+      </c>
+    </row>
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <v>0.90384615384615397</v>
+      </c>
+    </row>
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <v>0.86220930232558102</v>
+      </c>
+    </row>
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <v>0.80186480186480102</v>
+      </c>
+    </row>
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <v>0.93065268065268003</v>
+      </c>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <v>0.92787878787878797</v>
+      </c>
+    </row>
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <v>0.87367802585193899</v>
+      </c>
+    </row>
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <v>0.91347270615563203</v>
+      </c>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I351">
+        <v>0.85813953488371997</v>
+      </c>
+    </row>
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <v>0.93181818181818099</v>
+      </c>
+    </row>
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I353">
+        <v>0.94476744186046502</v>
+      </c>
+    </row>
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I354">
+        <v>0.94424242424242399</v>
+      </c>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <v>0.89430894308942999</v>
+      </c>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <v>0.90069686411149796</v>
+      </c>
+    </row>
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <v>0.82346109175377402</v>
+      </c>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I358">
+        <v>0.90584795321637401</v>
+      </c>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359">
+        <v>0.90096038415366098</v>
+      </c>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <v>0.90650406504064995</v>
+      </c>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <v>0.92740998838559796</v>
+      </c>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I362">
+        <v>0.91371158392434904</v>
+      </c>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I363">
+        <v>0.92034883720930205</v>
+      </c>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I364">
+        <v>0.89615846338535399</v>
+      </c>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I365">
+        <v>0.89953542392566699</v>
+      </c>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I366">
+        <v>0.94831591173054497</v>
+      </c>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I367">
+        <v>0.90734265734265696</v>
+      </c>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368">
+        <v>0.93786295005807196</v>
+      </c>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369">
+        <v>0.90893066980023496</v>
+      </c>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370">
+        <v>0.87454981992797098</v>
+      </c>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <v>0.84993997599039595</v>
+      </c>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <v>0.86569767441860401</v>
+      </c>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <v>0.93452380952380898</v>
+      </c>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I374">
+        <v>0.91052631578947296</v>
+      </c>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I375">
+        <v>0.915116279069767</v>
+      </c>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I376">
+        <v>0.92671394799054296</v>
+      </c>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I377">
+        <v>0.94172494172494103</v>
+      </c>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I378">
+        <v>0.88869047619047603</v>
+      </c>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I379">
+        <v>0.91521486643437799</v>
+      </c>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I380">
+        <v>0.88081395348837199</v>
+      </c>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381">
+        <v>0.93684210526315803</v>
+      </c>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I382">
+        <v>0.86524822695035397</v>
+      </c>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I383">
+        <v>0.87121212121212099</v>
+      </c>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I384">
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I385">
+        <v>0.91176470588235203</v>
+      </c>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I386">
+        <v>0.92616279069767404</v>
+      </c>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387">
+        <v>0.84633569739952696</v>
+      </c>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388">
+        <v>0.93125734430082197</v>
+      </c>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389">
+        <v>0.90650406504064995</v>
+      </c>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390">
+        <v>0.91162790697674401</v>
+      </c>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391">
+        <v>0.95816464237516796</v>
+      </c>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I392">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393">
+        <v>0.91753774680603895</v>
+      </c>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I394">
+        <v>0.83681765389082396</v>
+      </c>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I395">
+        <v>0.86875725900116096</v>
+      </c>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I396">
+        <v>0.91491841491841397</v>
+      </c>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I397">
+        <v>0.92923976608187098</v>
+      </c>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I398">
+        <v>0.83742690058479496</v>
+      </c>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I399">
+        <v>0.94177671068427304</v>
+      </c>
+    </row>
+    <row r="400" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I400">
+        <v>0.92797118847538995</v>
+      </c>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I401">
+        <v>0.91871345029239704</v>
+      </c>
+    </row>
+    <row r="402" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I402">
+        <v>0.93099415204678304</v>
+      </c>
+    </row>
+    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I403">
+        <v>0.94018583042973203</v>
+      </c>
+    </row>
+    <row r="404" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I404">
+        <v>0.90360046457607401</v>
+      </c>
+    </row>
+    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I405">
+        <v>0.91860465116279</v>
+      </c>
+    </row>
+    <row r="406" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I406">
+        <v>0.83999999999999897</v>
+      </c>
+    </row>
+    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I407">
+        <v>0.94289044289044199</v>
+      </c>
+    </row>
+    <row r="408" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I408">
+        <v>0.86583924349881802</v>
+      </c>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I409">
+        <v>0.90363636363636302</v>
+      </c>
+    </row>
+    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I410">
+        <v>0.93706293706293697</v>
+      </c>
+    </row>
+    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I411">
+        <v>0.89256678281068502</v>
+      </c>
+    </row>
+    <row r="412" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I412">
+        <v>0.95508274231678403</v>
+      </c>
+    </row>
+    <row r="413" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I413">
+        <v>0.888501742160278</v>
+      </c>
+    </row>
+    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I414">
+        <v>0.88895417156286705</v>
+      </c>
+    </row>
+    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I415">
+        <v>0.92102206736352998</v>
+      </c>
+    </row>
+    <row r="416" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I416">
+        <v>0.90181818181818096</v>
+      </c>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I417">
+        <v>0.91607142857142798</v>
+      </c>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I418">
+        <v>0.85406976744186003</v>
+      </c>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I419">
+        <v>0.90882694541231102</v>
+      </c>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I420">
+        <v>0.90350877192982404</v>
+      </c>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I421">
+        <v>0.90116279069767402</v>
+      </c>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I422">
+        <v>0.92508710801393701</v>
+      </c>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I423">
+        <v>0.92557022809123601</v>
+      </c>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I424">
+        <v>0.91860465116279</v>
+      </c>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I425">
+        <v>0.900709219858156</v>
+      </c>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I426">
+        <v>0.90813953488372001</v>
+      </c>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I427">
+        <v>0.83973589435774298</v>
+      </c>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I428">
+        <v>0.85639534883720903</v>
+      </c>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I429">
+        <v>0.89198606271777003</v>
+      </c>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I430">
+        <v>0.91843971631205601</v>
+      </c>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I431">
+        <v>0.88538011695906405</v>
+      </c>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I432">
+        <v>0.80846063454759098</v>
+      </c>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I433">
+        <v>0.85955710955710896</v>
+      </c>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I434">
+        <v>0.85534213685474103</v>
+      </c>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I435">
+        <v>0.88211382113821102</v>
+      </c>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I436">
+        <v>0.90882694541231102</v>
+      </c>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I437">
+        <v>0.91774383078730903</v>
+      </c>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I438">
+        <v>0.93125734430082197</v>
+      </c>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I439">
+        <v>0.90116959064327395</v>
+      </c>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I440">
+        <v>0.94889663182346096</v>
+      </c>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I441">
+        <v>0.89644607843137203</v>
+      </c>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I442">
+        <v>0.90775558166862502</v>
+      </c>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I443">
+        <v>0.92267441860465105</v>
+      </c>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I444">
+        <v>0.93844367015098695</v>
+      </c>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I445">
+        <v>0.86013986013985999</v>
+      </c>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I446">
+        <v>0.88081395348837199</v>
+      </c>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I447">
+        <v>0.89184397163120499</v>
+      </c>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I448">
+        <v>0.82902467685076298</v>
+      </c>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I449">
+        <v>0.94825581395348801</v>
+      </c>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I450">
+        <v>0.82810685249709604</v>
+      </c>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I451">
+        <v>0.91774383078730903</v>
+      </c>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I452">
+        <v>0.87115839243498805</v>
+      </c>
+    </row>
+    <row r="453" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I453">
+        <v>0.84959349593495903</v>
+      </c>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I454">
+        <v>0.85581395348837197</v>
+      </c>
+    </row>
+    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I455">
+        <v>0.88811188811188801</v>
+      </c>
+    </row>
+    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I456">
+        <v>0.92121588089329998</v>
+      </c>
+    </row>
+    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I457">
+        <v>0.88175270108043202</v>
+      </c>
+    </row>
+    <row r="458" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I458">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I459">
+        <v>0.87017543859649105</v>
+      </c>
+    </row>
+    <row r="460" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I460">
+        <v>0.89365452408930601</v>
+      </c>
+    </row>
+    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I461">
+        <v>0.91193853427895899</v>
+      </c>
+    </row>
+    <row r="462" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I462">
+        <v>0.85595238095238002</v>
+      </c>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I463">
+        <v>0.91695702671312396</v>
+      </c>
+    </row>
+    <row r="464" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I464">
+        <v>0.98081395348837197</v>
+      </c>
+    </row>
+    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I465">
+        <v>0.90654761904761905</v>
+      </c>
+    </row>
+    <row r="466" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I466">
+        <v>0.89356725146198801</v>
+      </c>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I467">
+        <v>0.92325581395348799</v>
+      </c>
+    </row>
+    <row r="468" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I468">
+        <v>0.94069767441860397</v>
+      </c>
+    </row>
+    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I469">
+        <v>0.89255702280912297</v>
+      </c>
+    </row>
+    <row r="470" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I470">
+        <v>0.82383720930232496</v>
+      </c>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I471">
+        <v>0.88719153936545203</v>
+      </c>
+    </row>
+    <row r="472" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I472">
+        <v>0.93895348837209303</v>
+      </c>
+    </row>
+    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I473">
+        <v>0.872241579558652</v>
+      </c>
+    </row>
+    <row r="474" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I474">
+        <v>0.86247086247086202</v>
+      </c>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I475">
+        <v>0.877468060394889</v>
+      </c>
+    </row>
+    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I476">
+        <v>0.86817653890824598</v>
+      </c>
+    </row>
+    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I477">
+        <v>0.91548463356973997</v>
+      </c>
+    </row>
+    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I478">
+        <v>0.88344988344988296</v>
+      </c>
+    </row>
+    <row r="479" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I479">
+        <v>0.89127906976744098</v>
+      </c>
+    </row>
+    <row r="480" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I480">
+        <v>0.92857142857142805</v>
+      </c>
+    </row>
+    <row r="481" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I481">
+        <v>0.89181286549707595</v>
+      </c>
+    </row>
+    <row r="482" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I482">
+        <v>0.83566433566433496</v>
+      </c>
+    </row>
+    <row r="483" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I483">
+        <v>0.89005847953216299</v>
+      </c>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I484">
+        <v>0.94853801169590601</v>
+      </c>
+    </row>
+    <row r="485" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I485">
+        <v>0.94970760233918095</v>
+      </c>
+    </row>
+    <row r="486" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I486">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="487" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I487">
+        <v>0.88211382113821102</v>
+      </c>
+    </row>
+    <row r="488" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I488">
+        <v>0.85663924794359503</v>
+      </c>
+    </row>
+    <row r="489" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I489">
+        <v>0.93181818181818099</v>
+      </c>
+    </row>
+    <row r="490" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I490">
+        <v>0.91289198606271704</v>
+      </c>
+    </row>
+    <row r="491" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I491">
+        <v>0.86120789779326301</v>
+      </c>
+    </row>
+    <row r="492" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I492">
+        <v>0.88811188811188801</v>
+      </c>
+    </row>
+    <row r="493" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I493">
+        <v>0.88307873090481703</v>
+      </c>
+    </row>
+    <row r="494" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I494">
+        <v>0.90129259694477004</v>
+      </c>
+    </row>
+    <row r="495" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I495">
+        <v>0.832558139534883</v>
+      </c>
+    </row>
+    <row r="496" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I496">
+        <v>0.90824622531939603</v>
+      </c>
+    </row>
+    <row r="497" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I497">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="498" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I498">
+        <v>0.91726190476190395</v>
+      </c>
+    </row>
+    <row r="499" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I499">
+        <v>0.810983397190293</v>
+      </c>
+    </row>
+    <row r="500" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I500">
+        <v>0.90360046457607401</v>
+      </c>
+    </row>
+    <row r="501" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I501">
+        <v>0.90465116279069702</v>
+      </c>
+    </row>
+    <row r="502" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I502">
+        <v>0.87441860465116195</v>
+      </c>
+    </row>
+    <row r="503" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I503">
+        <v>0.794047619047619</v>
+      </c>
+    </row>
+    <row r="504" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I504">
+        <v>0.88238770685579104</v>
+      </c>
+    </row>
+    <row r="505" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I505">
+        <v>0.89298245614034999</v>
+      </c>
+    </row>
+    <row r="506" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I506">
+        <v>0.916279069767441</v>
+      </c>
+    </row>
+    <row r="507" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I507">
+        <v>0.94730392156862697</v>
+      </c>
+    </row>
+    <row r="508" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I508">
+        <v>0.95296167247386698</v>
+      </c>
+    </row>
+    <row r="509" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I509">
+        <v>0.87529137529137502</v>
+      </c>
+    </row>
+    <row r="510" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I510">
+        <v>0.90602836879432602</v>
+      </c>
+    </row>
+    <row r="511" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I511">
+        <v>0.78255813953488296</v>
+      </c>
+    </row>
+    <row r="512" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I512">
+        <v>0.91656662665066002</v>
+      </c>
+    </row>
+    <row r="513" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I513">
+        <v>0.89011627906976698</v>
+      </c>
+    </row>
+    <row r="514" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I514">
+        <v>0.909407665505226</v>
+      </c>
+    </row>
+    <row r="515" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I515">
+        <v>0.89007092198581494</v>
+      </c>
+    </row>
+    <row r="516" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I516">
+        <v>0.85232558139534798</v>
+      </c>
+    </row>
+    <row r="517" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I517">
+        <v>0.92375886524822604</v>
+      </c>
+    </row>
+    <row r="518" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I518">
+        <v>0.91569767441860395</v>
+      </c>
+    </row>
+    <row r="519" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I519">
+        <v>0.97321428571428503</v>
+      </c>
+    </row>
+    <row r="520" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I520">
+        <v>0.87894736842105203</v>
+      </c>
+    </row>
+    <row r="521" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I521">
+        <v>0.84476744186046504</v>
+      </c>
+    </row>
+    <row r="522" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I522">
+        <v>0.83064516129032195</v>
+      </c>
+    </row>
+    <row r="523" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I523">
+        <v>0.92249417249417198</v>
+      </c>
+    </row>
+    <row r="524" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I524">
+        <v>0.93684210526315703</v>
+      </c>
+    </row>
+    <row r="525" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I525">
+        <v>0.91802325581395305</v>
+      </c>
+    </row>
+    <row r="526" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I526">
+        <v>0.90675990675990603</v>
+      </c>
+    </row>
+    <row r="527" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I527">
+        <v>0.92163742690058403</v>
+      </c>
+    </row>
+    <row r="528" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I528">
+        <v>0.96608187134502899</v>
+      </c>
+    </row>
+    <row r="529" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I529">
+        <v>0.90425531914893598</v>
+      </c>
+    </row>
+    <row r="530" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I530">
+        <v>0.93197674418604604</v>
+      </c>
+    </row>
+    <row r="531" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I531">
+        <v>0.88837209302325504</v>
+      </c>
+    </row>
+    <row r="532" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I532">
+        <v>0.86959064327485303</v>
+      </c>
+    </row>
+    <row r="533" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I533">
+        <v>0.87440476190476102</v>
+      </c>
+    </row>
+    <row r="534" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I534">
+        <v>0.90951821386604004</v>
+      </c>
+    </row>
+    <row r="535" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I535">
+        <v>0.97202797202797198</v>
+      </c>
+    </row>
+    <row r="536" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I536">
+        <v>0.88779069767441798</v>
+      </c>
+    </row>
+    <row r="537" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I537">
+        <v>0.94709302325581302</v>
+      </c>
+    </row>
+    <row r="538" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I538">
+        <v>0.90268065268065201</v>
+      </c>
+    </row>
+    <row r="539" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I539">
+        <v>0.92249417249417198</v>
+      </c>
+    </row>
+    <row r="540" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I540">
+        <v>0.92677070828331298</v>
+      </c>
+    </row>
+    <row r="541" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I541">
+        <v>0.93379790940766505</v>
+      </c>
+    </row>
+    <row r="542" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I542">
+        <v>0.877468060394889</v>
+      </c>
+    </row>
+    <row r="543" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I543">
+        <v>0.92321428571428499</v>
+      </c>
+    </row>
+    <row r="544" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I544">
+        <v>0.900709219858156</v>
+      </c>
+    </row>
+    <row r="545" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I545">
+        <v>0.90364277320799002</v>
+      </c>
+    </row>
+    <row r="546" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I546">
+        <v>0.969590643274853</v>
+      </c>
+    </row>
+    <row r="547" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I547">
+        <v>0.96511627906976705</v>
+      </c>
+    </row>
+    <row r="548" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I548">
+        <v>0.92767295597484201</v>
+      </c>
+    </row>
+    <row r="549" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I549">
+        <v>0.91784869976359296</v>
+      </c>
+    </row>
+    <row r="550" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I550">
+        <v>0.89878787878787803</v>
+      </c>
+    </row>
+    <row r="551" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I551">
+        <v>0.917249417249417</v>
+      </c>
+    </row>
+    <row r="552" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I552">
+        <v>0.87234042553191404</v>
+      </c>
+    </row>
+    <row r="553" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I553">
+        <v>0.85314685314685301</v>
+      </c>
+    </row>
+    <row r="554" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I554">
+        <v>0.88953488372093004</v>
+      </c>
+    </row>
+    <row r="555" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I555">
+        <v>0.92538190364277295</v>
+      </c>
+    </row>
+    <row r="556" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I556">
+        <v>0.92606060606060603</v>
+      </c>
+    </row>
+    <row r="557" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I557">
+        <v>0.94367015098722395</v>
+      </c>
+    </row>
+    <row r="558" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I558">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="559" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I559">
+        <v>0.98707403055229104</v>
+      </c>
+    </row>
+    <row r="560" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I560">
+        <v>0.910756501182033</v>
+      </c>
+    </row>
+    <row r="561" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I561">
+        <v>0.959810874704491</v>
+      </c>
+    </row>
+    <row r="562" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I562">
+        <v>0.90350877192982404</v>
+      </c>
+    </row>
+    <row r="563" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I563">
+        <v>0.88327526132404099</v>
+      </c>
+    </row>
+    <row r="564" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I564">
+        <v>0.90877192982456101</v>
+      </c>
+    </row>
+    <row r="565" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I565">
+        <v>0.93654524089306701</v>
+      </c>
+    </row>
+    <row r="566" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I566">
+        <v>0.86802325581395301</v>
+      </c>
+    </row>
+    <row r="567" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I567">
+        <v>0.93075980392156799</v>
+      </c>
+    </row>
+    <row r="568" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I568">
+        <v>0.88655462184873901</v>
+      </c>
+    </row>
+    <row r="569" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I569">
+        <v>0.91371158392434904</v>
+      </c>
+    </row>
+    <row r="570" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I570">
+        <v>0.86486486486486402</v>
+      </c>
+    </row>
+    <row r="571" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I571">
+        <v>0.93139534883720898</v>
+      </c>
+    </row>
+    <row r="572" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I572">
+        <v>0.81796690307328601</v>
+      </c>
+    </row>
+    <row r="573" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I573">
+        <v>0.88617886178861704</v>
+      </c>
+    </row>
+    <row r="574" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I574">
+        <v>0.930894308943089</v>
+      </c>
+    </row>
+    <row r="575" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I575">
+        <v>0.88344988344988296</v>
+      </c>
+    </row>
+    <row r="576" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I576">
+        <v>0.91069330199764897</v>
+      </c>
+    </row>
+    <row r="577" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I577">
+        <v>0.876162790697674</v>
+      </c>
+    </row>
+    <row r="578" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I578">
+        <v>0.88120567375886505</v>
+      </c>
+    </row>
+    <row r="579" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I579">
+        <v>0.90755813953488296</v>
+      </c>
+    </row>
+    <row r="580" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I580">
+        <v>0.895558223289315</v>
+      </c>
+    </row>
+    <row r="581" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I581">
+        <v>0.87906976744186005</v>
+      </c>
+    </row>
+    <row r="582" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I582">
+        <v>0.88770685579196196</v>
+      </c>
+    </row>
+    <row r="583" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I583">
+        <v>0.940898345153664</v>
+      </c>
+    </row>
+    <row r="584" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I584">
+        <v>0.90816326530612201</v>
+      </c>
+    </row>
+    <row r="585" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I585">
+        <v>0.86904761904761896</v>
+      </c>
+    </row>
+    <row r="586" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I586">
+        <v>0.85636363636363599</v>
+      </c>
+    </row>
+    <row r="587" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I587">
+        <v>0.85487661574618001</v>
+      </c>
+    </row>
+    <row r="588" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I588">
+        <v>0.87074030552291404</v>
+      </c>
+    </row>
+    <row r="589" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I589">
+        <v>0.82533013205282102</v>
+      </c>
+    </row>
+    <row r="590" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I590">
+        <v>0.87990196078431304</v>
+      </c>
+    </row>
+    <row r="591" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I591">
+        <v>0.925667828106852</v>
+      </c>
+    </row>
+    <row r="592" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I592">
+        <v>0.81081081081080997</v>
+      </c>
+    </row>
+    <row r="593" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I593">
+        <v>0.85830429732868696</v>
+      </c>
+    </row>
+    <row r="594" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I594">
+        <v>0.85372960372960305</v>
+      </c>
+    </row>
+    <row r="595" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I595">
+        <v>0.90716803760282005</v>
+      </c>
+    </row>
+    <row r="596" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I596">
+        <v>0.95063879210220603</v>
+      </c>
+    </row>
+    <row r="597" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I597">
+        <v>0.85833333333333295</v>
+      </c>
+    </row>
+    <row r="598" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I598">
+        <v>0.88187134502923903</v>
+      </c>
+    </row>
+    <row r="599" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I599">
+        <v>0.88604651162790704</v>
+      </c>
+    </row>
+    <row r="600" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I600">
+        <v>0.89779326364692202</v>
+      </c>
+    </row>
+    <row r="601" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I601">
+        <v>0.94709302325581302</v>
+      </c>
+    </row>
+    <row r="602" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I602">
+        <v>0.84327485380116896</v>
+      </c>
+    </row>
+    <row r="603" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I603">
+        <v>0.91753774680603895</v>
+      </c>
+    </row>
+    <row r="604" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I604">
+        <v>0.83953488372092999</v>
+      </c>
+    </row>
+    <row r="605" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I605">
+        <v>0.88014101057579297</v>
+      </c>
+    </row>
+    <row r="606" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I606">
+        <v>0.88888888888888795</v>
+      </c>
+    </row>
+    <row r="607" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I607">
+        <v>0.90416666666666601</v>
+      </c>
+    </row>
+    <row r="608" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I608">
+        <v>0.95804195804195802</v>
+      </c>
+    </row>
+    <row r="609" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I609">
+        <v>0.896004700352526</v>
+      </c>
+    </row>
+    <row r="610" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I610">
+        <v>0.93859649122806998</v>
+      </c>
+    </row>
+    <row r="611" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I611">
+        <v>0.92631578947368398</v>
+      </c>
+    </row>
+    <row r="612" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I612">
+        <v>0.90350877192982404</v>
+      </c>
+    </row>
+    <row r="613" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I613">
+        <v>0.90559440559440496</v>
+      </c>
+    </row>
+    <row r="614" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I614">
+        <v>0.93360752056404195</v>
+      </c>
+    </row>
+    <row r="615" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I615">
+        <v>0.95330969267139398</v>
+      </c>
+    </row>
+    <row r="616" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I616">
+        <v>0.90188014101057501</v>
+      </c>
+    </row>
+    <row r="617" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I617">
+        <v>0.89064327485380101</v>
+      </c>
+    </row>
+    <row r="618" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I618">
+        <v>0.84615384615384603</v>
+      </c>
+    </row>
+    <row r="619" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I619">
+        <v>0.91337209302325495</v>
+      </c>
+    </row>
+    <row r="620" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I620">
+        <v>0.84912280701754295</v>
+      </c>
+    </row>
+    <row r="621" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I621">
+        <v>0.93157262905161997</v>
+      </c>
+    </row>
+    <row r="622" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I622">
+        <v>0.91289198606271704</v>
+      </c>
+    </row>
+    <row r="623" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I623">
+        <v>0.91279069767441801</v>
+      </c>
+    </row>
+    <row r="624" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I624">
+        <v>0.95535714285714202</v>
+      </c>
+    </row>
+    <row r="625" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I625">
+        <v>0.90661938534278896</v>
+      </c>
+    </row>
+    <row r="626" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I626">
+        <v>0.91578947368421004</v>
+      </c>
+    </row>
+    <row r="627" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I627">
+        <v>0.84958871915393597</v>
+      </c>
+    </row>
+    <row r="628" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I628">
+        <v>0.91596638655462104</v>
+      </c>
+    </row>
+    <row r="629" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I629">
+        <v>0.90185830429732805</v>
+      </c>
+    </row>
+    <row r="630" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I630">
+        <v>0.86897767332549902</v>
+      </c>
+    </row>
+    <row r="631" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I631">
+        <v>0.95240893066980004</v>
+      </c>
+    </row>
+    <row r="632" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I632">
+        <v>0.92267441860465105</v>
+      </c>
+    </row>
+    <row r="633" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I633">
+        <v>0.90650406504064995</v>
+      </c>
+    </row>
+    <row r="634" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I634">
+        <v>0.89047619047618998</v>
+      </c>
+    </row>
+    <row r="635" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I635">
+        <v>0.93255813953488298</v>
+      </c>
+    </row>
+    <row r="636" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I636">
+        <v>0.87611749680715101</v>
+      </c>
+    </row>
+    <row r="637" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I637">
+        <v>0.88792102206736301</v>
+      </c>
+    </row>
+    <row r="638" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I638">
+        <v>0.87274909963985503</v>
+      </c>
+    </row>
+    <row r="639" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I639">
+        <v>0.91811846689895404</v>
+      </c>
+    </row>
+    <row r="640" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I640">
+        <v>0.95571095571095499</v>
+      </c>
+    </row>
+    <row r="641" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I641">
+        <v>0.87688734030197402</v>
+      </c>
+    </row>
+    <row r="642" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I642">
+        <v>0.91666666666666596</v>
+      </c>
+    </row>
+    <row r="643" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I643">
+        <v>0.85428907168037604</v>
+      </c>
+    </row>
+    <row r="644" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I644">
+        <v>0.89534883720930203</v>
+      </c>
+    </row>
+    <row r="645" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I645">
+        <v>0.91656874265569899</v>
+      </c>
+    </row>
+    <row r="646" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I646">
+        <v>0.91608391608391604</v>
+      </c>
+    </row>
+    <row r="647" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I647">
+        <v>0.87202380952380898</v>
+      </c>
+    </row>
+    <row r="648" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I648">
+        <v>0.89888337468982604</v>
+      </c>
+    </row>
+    <row r="649" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I649">
+        <v>0.85906432748537997</v>
+      </c>
+    </row>
+    <row r="650" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I650">
+        <v>0.91403508771929798</v>
+      </c>
+    </row>
+    <row r="651" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I651">
+        <v>0.87485380116959</v>
+      </c>
+    </row>
+    <row r="652" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I652">
+        <v>0.91869918699186903</v>
+      </c>
+    </row>
+    <row r="653" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I653">
+        <v>0.93358876117496803</v>
+      </c>
+    </row>
+    <row r="654" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I654">
+        <v>0.90599294947121001</v>
+      </c>
+    </row>
+    <row r="655" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I655">
+        <v>0.82801418439716301</v>
+      </c>
+    </row>
+    <row r="656" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I656">
+        <v>0.89894242068155095</v>
+      </c>
+    </row>
+    <row r="657" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I657">
+        <v>0.89418604651162703</v>
+      </c>
+    </row>
+    <row r="658" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I658">
+        <v>0.888501742160278</v>
+      </c>
+    </row>
+    <row r="659" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I659">
+        <v>0.93263646922183496</v>
+      </c>
+    </row>
+    <row r="660" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I660">
+        <v>0.88895417156286705</v>
+      </c>
+    </row>
+    <row r="661" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I661">
+        <v>0.86453488372093001</v>
+      </c>
+    </row>
+    <row r="662" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I662">
+        <v>0.936120789779326</v>
+      </c>
+    </row>
+    <row r="663" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I663">
+        <v>0.90058479532163704</v>
+      </c>
+    </row>
+    <row r="664" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I664">
+        <v>0.89953542392566699</v>
+      </c>
+    </row>
+    <row r="665" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I665">
+        <v>0.87354312354312302</v>
+      </c>
+    </row>
+    <row r="666" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I666">
+        <v>0.92973286875725802</v>
+      </c>
+    </row>
+    <row r="667" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I667">
+        <v>0.89011627906976698</v>
+      </c>
+    </row>
+    <row r="668" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I668">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="669" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I669">
+        <v>0.877325581395348</v>
+      </c>
+    </row>
+    <row r="670" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I670">
+        <v>0.922444183313748</v>
+      </c>
+    </row>
+    <row r="671" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I671">
+        <v>0.88128654970760201</v>
+      </c>
+    </row>
+    <row r="672" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I672">
+        <v>0.86802325581395301</v>
+      </c>
+    </row>
+    <row r="673" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I673">
+        <v>0.89418604651162703</v>
+      </c>
+    </row>
+    <row r="674" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I674">
+        <v>0.86453488372093001</v>
+      </c>
+    </row>
+    <row r="675" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I675">
+        <v>0.94825581395348801</v>
+      </c>
+    </row>
+    <row r="676" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I676">
+        <v>0.94871794871794801</v>
+      </c>
+    </row>
+    <row r="677" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I677">
+        <v>0.82843713278495801</v>
+      </c>
+    </row>
+    <row r="678" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I678">
+        <v>0.93713278495887098</v>
+      </c>
+    </row>
+    <row r="679" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I679">
+        <v>0.86674669867947096</v>
+      </c>
+    </row>
+    <row r="680" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I680">
+        <v>0.93298368298368295</v>
+      </c>
+    </row>
+    <row r="681" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I681">
+        <v>0.89837398373983701</v>
+      </c>
+    </row>
+    <row r="682" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I682">
+        <v>0.92267441860465105</v>
+      </c>
+    </row>
+    <row r="683" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I683">
+        <v>0.87132784958871901</v>
+      </c>
+    </row>
+    <row r="684" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I684">
+        <v>0.87470862470862398</v>
+      </c>
+    </row>
+    <row r="685" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I685">
+        <v>0.92674418604651099</v>
+      </c>
+    </row>
+    <row r="686" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I686">
+        <v>0.85946573751451705</v>
+      </c>
+    </row>
+    <row r="687" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I687">
+        <v>0.858391608391608</v>
+      </c>
+    </row>
+    <row r="688" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I688">
+        <v>0.86976744186046495</v>
+      </c>
+    </row>
+    <row r="689" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I689">
+        <v>0.94418604651162796</v>
+      </c>
+    </row>
+    <row r="690" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I690">
+        <v>0.90384615384615297</v>
+      </c>
+    </row>
+    <row r="691" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I691">
+        <v>0.94244186046511602</v>
+      </c>
+    </row>
+    <row r="692" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I692">
+        <v>0.89590643274853798</v>
+      </c>
+    </row>
+    <row r="693" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I693">
+        <v>0.917543859649122</v>
+      </c>
+    </row>
+    <row r="694" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I694">
+        <v>0.84574468085106302</v>
+      </c>
+    </row>
+    <row r="695" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I695">
+        <v>0.86337209302325502</v>
+      </c>
+    </row>
+    <row r="696" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I696">
+        <v>0.94545454545454499</v>
+      </c>
+    </row>
+    <row r="697" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I697">
+        <v>0.90909090909090895</v>
+      </c>
+    </row>
+    <row r="698" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I698">
+        <v>0.89767441860465103</v>
+      </c>
+    </row>
+    <row r="699" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I699">
+        <v>0.87660818713450295</v>
+      </c>
+    </row>
+    <row r="700" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I700">
+        <v>0.94055944055943996</v>
+      </c>
+    </row>
+    <row r="701" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I701">
+        <v>0.86427732079905895</v>
+      </c>
+    </row>
+    <row r="702" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I702">
+        <v>0.92773207990599305</v>
+      </c>
+    </row>
+    <row r="703" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I703">
+        <v>0.92514619883040905</v>
+      </c>
+    </row>
+    <row r="704" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I704">
+        <v>0.89915966386554602</v>
+      </c>
+    </row>
+    <row r="705" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I705">
+        <v>0.88993710691823802</v>
+      </c>
+    </row>
+    <row r="706" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I706">
+        <v>0.90243902439024304</v>
+      </c>
+    </row>
+    <row r="707" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I707">
+        <v>0.83159117305458696</v>
+      </c>
+    </row>
+    <row r="708" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I708">
+        <v>0.98538011695906402</v>
+      </c>
+    </row>
+    <row r="709" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I709">
+        <v>0.85897435897435903</v>
+      </c>
+    </row>
+    <row r="710" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I710">
+        <v>0.94186046511627897</v>
+      </c>
+    </row>
+    <row r="711" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I711">
+        <v>0.96341463414634099</v>
+      </c>
+    </row>
+    <row r="712" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I712">
+        <v>0.839243498817967</v>
+      </c>
+    </row>
+    <row r="713" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I713">
+        <v>0.94829612220916504</v>
+      </c>
+    </row>
+    <row r="714" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I714">
+        <v>0.96627906976744105</v>
+      </c>
+    </row>
+    <row r="715" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I715">
+        <v>0.88089330024813794</v>
+      </c>
+    </row>
+    <row r="716" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I716">
+        <v>0.84129901960784303</v>
+      </c>
+    </row>
+    <row r="717" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I717">
+        <v>0.91360294117647001</v>
+      </c>
+    </row>
+    <row r="718" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I718">
+        <v>0.86991869918699105</v>
+      </c>
+    </row>
+    <row r="719" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I719">
+        <v>0.90069686411149796</v>
+      </c>
+    </row>
+    <row r="720" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I720">
+        <v>0.91104651162790695</v>
+      </c>
+    </row>
+    <row r="721" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I721">
+        <v>0.87602820211515797</v>
+      </c>
+    </row>
+    <row r="722" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I722">
+        <v>0.83430232558139505</v>
+      </c>
+    </row>
+    <row r="723" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I723">
+        <v>0.90476190476190399</v>
+      </c>
+    </row>
+    <row r="724" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I724">
+        <v>0.91433566433566404</v>
+      </c>
+    </row>
+    <row r="725" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I725">
+        <v>0.89082462253193895</v>
+      </c>
+    </row>
+    <row r="726" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I726">
+        <v>0.85872093023255802</v>
+      </c>
+    </row>
+    <row r="727" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I727">
+        <v>0.90658049353701498</v>
+      </c>
+    </row>
+    <row r="728" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I728">
+        <v>0.89256678281068502</v>
+      </c>
+    </row>
+    <row r="729" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I729">
+        <v>0.86540880503144602</v>
+      </c>
+    </row>
+    <row r="730" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I730">
+        <v>0.91142191142191098</v>
+      </c>
+    </row>
+    <row r="731" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I731">
+        <v>0.91071428571428503</v>
+      </c>
+    </row>
+    <row r="732" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I732">
+        <v>0.87995337995337997</v>
+      </c>
+    </row>
+    <row r="733" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I733">
+        <v>0.930894308943089</v>
+      </c>
+    </row>
+    <row r="734" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I734">
+        <v>0.87321428571428505</v>
+      </c>
+    </row>
+    <row r="735" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I735">
+        <v>0.92732558139534804</v>
+      </c>
+    </row>
+    <row r="736" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I736">
+        <v>0.82325581395348801</v>
+      </c>
+    </row>
+    <row r="737" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I737">
+        <v>0.878488372093023</v>
+      </c>
+    </row>
+    <row r="738" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I738">
+        <v>0.91918604651162705</v>
+      </c>
+    </row>
+    <row r="739" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I739">
+        <v>0.953962703962704</v>
+      </c>
+    </row>
+    <row r="740" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I740">
+        <v>0.90716803760282005</v>
+      </c>
+    </row>
+    <row r="741" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I741">
+        <v>0.88245614035087705</v>
+      </c>
+    </row>
+    <row r="742" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I742">
+        <v>0.90998838559814099</v>
+      </c>
+    </row>
+    <row r="743" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I743">
+        <v>0.917441860465116</v>
+      </c>
+    </row>
+    <row r="744" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I744">
+        <v>0.92365967365967305</v>
+      </c>
+    </row>
+    <row r="745" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I745">
+        <v>0.94230769230769196</v>
+      </c>
+    </row>
+    <row r="746" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I746">
+        <v>0.87321428571428505</v>
+      </c>
+    </row>
+    <row r="747" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I747">
+        <v>0.86236933797909399</v>
+      </c>
+    </row>
+    <row r="748" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I748">
+        <v>0.93742690058479505</v>
+      </c>
+    </row>
+    <row r="749" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I749">
+        <v>0.85756501182033096</v>
+      </c>
+    </row>
+    <row r="750" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I750">
+        <v>0.90011750881316099</v>
+      </c>
+    </row>
+    <row r="751" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I751">
+        <v>0.90755813953488296</v>
+      </c>
+    </row>
+    <row r="752" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I752">
+        <v>0.81139835487661505</v>
+      </c>
+    </row>
+    <row r="753" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I753">
+        <v>0.89243498817966904</v>
+      </c>
+    </row>
+    <row r="754" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I754">
+        <v>0.88197674418604599</v>
+      </c>
+    </row>
+    <row r="755" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I755">
+        <v>0.87108013937282203</v>
+      </c>
+    </row>
+    <row r="756" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I756">
+        <v>0.84262485481997595</v>
+      </c>
+    </row>
+    <row r="757" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I757">
+        <v>0.89082462253193895</v>
+      </c>
+    </row>
+    <row r="758" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I758">
+        <v>0.87965116279069699</v>
+      </c>
+    </row>
+    <row r="759" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I759">
+        <v>0.89534883720930203</v>
+      </c>
+    </row>
+    <row r="760" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I760">
+        <v>0.92424242424242398</v>
+      </c>
+    </row>
+    <row r="761" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I761">
+        <v>0.94093567251461896</v>
+      </c>
+    </row>
+    <row r="762" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I762">
+        <v>0.91891891891891797</v>
+      </c>
+    </row>
+    <row r="763" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I763">
+        <v>0.89219114219114204</v>
+      </c>
+    </row>
+    <row r="764" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I764">
+        <v>0.89404761904761898</v>
+      </c>
+    </row>
+    <row r="765" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I765">
+        <v>0.82269503546099298</v>
+      </c>
+    </row>
+    <row r="766" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I766">
+        <v>0.88694638694638595</v>
+      </c>
+    </row>
+    <row r="767" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I767">
+        <v>0.84244186046511604</v>
+      </c>
+    </row>
+    <row r="768" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I768">
+        <v>0.91011904761904705</v>
+      </c>
+    </row>
+    <row r="769" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I769">
+        <v>0.91637426900584695</v>
+      </c>
+    </row>
+    <row r="770" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I770">
+        <v>0.87896592244418303</v>
+      </c>
+    </row>
+    <row r="771" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I771">
+        <v>0.87587412587412505</v>
+      </c>
+    </row>
+    <row r="772" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I772">
+        <v>0.90305522914218495</v>
+      </c>
+    </row>
+    <row r="773" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I773">
+        <v>0.94425087108013905</v>
+      </c>
+    </row>
+    <row r="774" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I774">
+        <v>0.86465721040189103</v>
+      </c>
+    </row>
+    <row r="775" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I775">
+        <v>0.86627906976744096</v>
+      </c>
+    </row>
+    <row r="776" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I776">
+        <v>0.85663924794359503</v>
+      </c>
+    </row>
+    <row r="777" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I777">
+        <v>0.91812865497076002</v>
+      </c>
+    </row>
+    <row r="778" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I778">
+        <v>0.87529550827423097</v>
+      </c>
+    </row>
+    <row r="779" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I779">
+        <v>0.92773892773892697</v>
+      </c>
+    </row>
+    <row r="780" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I780">
+        <v>0.89005847953216299</v>
+      </c>
+    </row>
+    <row r="781" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I781">
+        <v>0.93997668997669004</v>
+      </c>
+    </row>
+    <row r="782" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I782">
+        <v>0.92307692307692302</v>
+      </c>
+    </row>
+    <row r="783" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I783">
+        <v>0.85283687943262398</v>
+      </c>
+    </row>
+    <row r="784" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I784">
+        <v>0.87093023255813895</v>
+      </c>
+    </row>
+    <row r="785" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I785">
+        <v>0.89064327485380101</v>
+      </c>
+    </row>
+    <row r="786" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I786">
+        <v>0.93928571428571395</v>
+      </c>
+    </row>
+    <row r="787" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I787">
+        <v>0.875440658049353</v>
+      </c>
+    </row>
+    <row r="788" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I788">
+        <v>0.95337995337995296</v>
+      </c>
+    </row>
+    <row r="789" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I789">
+        <v>0.88534278959810797</v>
+      </c>
+    </row>
+    <row r="790" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I790">
+        <v>0.90540540540540504</v>
+      </c>
+    </row>
+    <row r="791" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I791">
+        <v>0.90326340326340304</v>
+      </c>
+    </row>
+    <row r="792" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I792">
+        <v>0.87688734030197402</v>
+      </c>
+    </row>
+    <row r="793" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I793">
+        <v>0.92339181286549699</v>
+      </c>
+    </row>
+    <row r="794" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I794">
+        <v>0.92365967365967305</v>
+      </c>
+    </row>
+    <row r="795" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I795">
+        <v>0.90658049353701498</v>
+      </c>
+    </row>
+    <row r="796" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I796">
+        <v>0.86424242424242403</v>
+      </c>
+    </row>
+    <row r="797" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I797">
+        <v>0.85438596491228003</v>
+      </c>
+    </row>
+    <row r="798" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I798">
+        <v>0.81860465116279002</v>
+      </c>
+    </row>
+    <row r="799" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I799">
+        <v>0.83546511627906905</v>
+      </c>
+    </row>
+    <row r="800" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I800">
+        <v>0.867015098722415</v>
+      </c>
+    </row>
+    <row r="801" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I801">
+        <v>0.84731934731934699</v>
+      </c>
+    </row>
+    <row r="802" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I802">
+        <v>0.84011627906976705</v>
+      </c>
+    </row>
+    <row r="803" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I803">
+        <v>0.88425925925925897</v>
+      </c>
+    </row>
+    <row r="804" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I804">
+        <v>0.87108013937282203</v>
+      </c>
+    </row>
+    <row r="805" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I805">
+        <v>0.93430232558139503</v>
+      </c>
+    </row>
+    <row r="806" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I806">
+        <v>0.90523255813953396</v>
+      </c>
+    </row>
+    <row r="807" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I807">
+        <v>0.90034965034964998</v>
+      </c>
+    </row>
+    <row r="808" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I808">
+        <v>0.92303030303030298</v>
+      </c>
+    </row>
+    <row r="809" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I809">
+        <v>0.92657342657342601</v>
+      </c>
+    </row>
+    <row r="810" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I810">
+        <v>0.90540540540540504</v>
+      </c>
+    </row>
+    <row r="811" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I811">
+        <v>0.87368421052631495</v>
+      </c>
+    </row>
+    <row r="812" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I812">
+        <v>0.89345238095238</v>
+      </c>
+    </row>
+    <row r="813" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I813">
+        <v>0.91258741258741205</v>
+      </c>
+    </row>
+    <row r="814" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I814">
+        <v>0.91363102232667404</v>
+      </c>
+    </row>
+    <row r="815" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I815">
+        <v>0.89685314685314599</v>
+      </c>
+    </row>
+    <row r="816" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I816">
+        <v>0.94076655052264802</v>
+      </c>
+    </row>
+    <row r="817" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I817">
+        <v>0.859338061465721</v>
+      </c>
+    </row>
+    <row r="818" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I818">
+        <v>0.90967365967365899</v>
+      </c>
+    </row>
+    <row r="819" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I819">
+        <v>0.92034883720930205</v>
+      </c>
+    </row>
+    <row r="820" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I820">
+        <v>0.88604651162790704</v>
+      </c>
+    </row>
+    <row r="821" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I821">
+        <v>0.95180023228803701</v>
+      </c>
+    </row>
+    <row r="822" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I822">
+        <v>0.85888501742160195</v>
+      </c>
+    </row>
+    <row r="823" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I823">
+        <v>0.84810874704491701</v>
+      </c>
+    </row>
+    <row r="824" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I824">
+        <v>0.93040935672514602</v>
+      </c>
+    </row>
+    <row r="825" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I825">
+        <v>0.91811846689895404</v>
+      </c>
+    </row>
+    <row r="826" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I826">
+        <v>0.87154861944777895</v>
+      </c>
+    </row>
+    <row r="827" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I827">
+        <v>0.92553191489361697</v>
+      </c>
+    </row>
+    <row r="828" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I828">
+        <v>0.844444444444444</v>
+      </c>
+    </row>
+    <row r="829" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I829">
+        <v>0.89941860465116197</v>
+      </c>
+    </row>
+    <row r="830" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I830">
+        <v>0.93139534883720898</v>
+      </c>
+    </row>
+    <row r="831" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I831">
+        <v>0.86120789779326301</v>
+      </c>
+    </row>
+    <row r="832" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I832">
+        <v>0.91317016317016297</v>
+      </c>
+    </row>
+    <row r="833" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I833">
+        <v>0.90243902439024304</v>
+      </c>
+    </row>
+    <row r="834" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I834">
+        <v>0.92392566782810603</v>
+      </c>
+    </row>
+    <row r="835" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I835">
+        <v>0.90501165501165404</v>
+      </c>
+    </row>
+    <row r="836" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I836">
+        <v>0.76689976689976602</v>
+      </c>
+    </row>
+    <row r="837" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I837">
+        <v>0.877468060394889</v>
+      </c>
+    </row>
+    <row r="838" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I838">
+        <v>0.93960511033681704</v>
+      </c>
+    </row>
+    <row r="839" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I839">
+        <v>0.92132867132867102</v>
+      </c>
+    </row>
+    <row r="840" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I840">
+        <v>0.92132867132867102</v>
+      </c>
+    </row>
+    <row r="841" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I841">
+        <v>0.89314750290360001</v>
+      </c>
+    </row>
+    <row r="842" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I842">
+        <v>0.96357226792009398</v>
+      </c>
+    </row>
+    <row r="843" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I843">
+        <v>0.83566433566433496</v>
+      </c>
+    </row>
+    <row r="844" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I844">
+        <v>0.93567251461988299</v>
+      </c>
+    </row>
+    <row r="845" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I845">
+        <v>0.92515723270440198</v>
+      </c>
+    </row>
+    <row r="846" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I846">
+        <v>0.90465116279069702</v>
+      </c>
+    </row>
+    <row r="847" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I847">
+        <v>0.93684210526315703</v>
+      </c>
+    </row>
+    <row r="848" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I848">
+        <v>0.96709753231492301</v>
+      </c>
+    </row>
+    <row r="849" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I849">
+        <v>0.90276110444177604</v>
+      </c>
+    </row>
+    <row r="850" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I850">
+        <v>0.93881118881118797</v>
+      </c>
+    </row>
+    <row r="851" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I851">
+        <v>0.90892857142857097</v>
+      </c>
+    </row>
+    <row r="852" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I852">
+        <v>0.94269005847953202</v>
+      </c>
+    </row>
+    <row r="853" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I853">
+        <v>0.86170212765957399</v>
+      </c>
+    </row>
+    <row r="854" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I854">
+        <v>0.93912529550827395</v>
+      </c>
+    </row>
+    <row r="855" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I855">
+        <v>0.90232558139534802</v>
+      </c>
+    </row>
+    <row r="856" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I856">
+        <v>0.92325581395348799</v>
+      </c>
+    </row>
+    <row r="857" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I857">
+        <v>0.91774383078730903</v>
+      </c>
+    </row>
+    <row r="858" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I858">
+        <v>0.92553191489361697</v>
+      </c>
+    </row>
+    <row r="859" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I859">
+        <v>0.86488095238095197</v>
+      </c>
+    </row>
+    <row r="860" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I860">
+        <v>0.92185663924794303</v>
+      </c>
+    </row>
+    <row r="861" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I861">
+        <v>0.827380952380952</v>
+      </c>
+    </row>
+    <row r="862" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I862">
+        <v>0.91578947368421004</v>
+      </c>
+    </row>
+    <row r="863" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I863">
+        <v>0.94561403508771902</v>
+      </c>
+    </row>
+    <row r="864" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I864">
+        <v>0.85348837209302297</v>
+      </c>
+    </row>
+    <row r="865" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I865">
+        <v>0.88425381903642697</v>
+      </c>
+    </row>
+    <row r="866" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I866">
+        <v>0.92857142857142805</v>
+      </c>
+    </row>
+    <row r="867" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I867">
+        <v>0.88111888111888104</v>
+      </c>
+    </row>
+    <row r="868" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I868">
+        <v>0.93859649122806998</v>
+      </c>
+    </row>
+    <row r="869" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I869">
+        <v>0.877468060394889</v>
+      </c>
+    </row>
+    <row r="870" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I870">
+        <v>0.88836662749706197</v>
+      </c>
+    </row>
+    <row r="871" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I871">
+        <v>0.86569767441860401</v>
+      </c>
+    </row>
+    <row r="872" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I872">
+        <v>0.89361702127659504</v>
+      </c>
+    </row>
+    <row r="873" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I873">
+        <v>0.91114982578397197</v>
+      </c>
+    </row>
+    <row r="874" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I874">
+        <v>0.85307781649244996</v>
+      </c>
+    </row>
+    <row r="875" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I875">
+        <v>0.90773809523809501</v>
+      </c>
+    </row>
+    <row r="876" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I876">
+        <v>0.91046511627906901</v>
+      </c>
+    </row>
+    <row r="877" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I877">
+        <v>0.89198606271777003</v>
+      </c>
+    </row>
+    <row r="878" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I878">
+        <v>0.93274853801169499</v>
+      </c>
+    </row>
+    <row r="879" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I879">
+        <v>0.889479905437352</v>
+      </c>
+    </row>
+    <row r="880" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I880">
+        <v>0.88617886178861704</v>
+      </c>
+    </row>
+    <row r="881" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I881">
+        <v>0.89125295508274205</v>
+      </c>
+    </row>
+    <row r="882" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I882">
+        <v>0.88829787234042501</v>
+      </c>
+    </row>
+    <row r="883" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I883">
+        <v>0.87862950058071998</v>
+      </c>
+    </row>
+    <row r="884" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I884">
+        <v>0.90734265734265696</v>
+      </c>
+    </row>
+    <row r="885" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I885">
+        <v>0.90501165501165504</v>
+      </c>
+    </row>
+    <row r="886" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I886">
+        <v>0.867715617715617</v>
+      </c>
+    </row>
+    <row r="887" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I887">
+        <v>0.91869918699186903</v>
+      </c>
+    </row>
+    <row r="888" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I888">
+        <v>0.92016317016316995</v>
+      </c>
+    </row>
+    <row r="889" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I889">
+        <v>0.88829787234042501</v>
+      </c>
+    </row>
+    <row r="890" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I890">
+        <v>0.915116279069767</v>
+      </c>
+    </row>
+    <row r="891" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I891">
+        <v>0.91860465116279</v>
+      </c>
+    </row>
+    <row r="892" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I892">
+        <v>0.89976689976689905</v>
+      </c>
+    </row>
+    <row r="893" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I893">
+        <v>0.92303172737955297</v>
+      </c>
+    </row>
+    <row r="894" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I894">
+        <v>0.91480611045828397</v>
+      </c>
+    </row>
+    <row r="895" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I895">
+        <v>0.87790697674418605</v>
+      </c>
+    </row>
+    <row r="896" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I896">
+        <v>0.90988372093023195</v>
+      </c>
+    </row>
+    <row r="897" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I897">
+        <v>0.94767441860465096</v>
+      </c>
+    </row>
+    <row r="898" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I898">
+        <v>0.92105263157894701</v>
+      </c>
+    </row>
+    <row r="899" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I899">
+        <v>0.86627906976744096</v>
+      </c>
+    </row>
+    <row r="900" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I900">
+        <v>0.89195678271308498</v>
+      </c>
+    </row>
+    <row r="901" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I901">
+        <v>0.83137485311398296</v>
+      </c>
+    </row>
+    <row r="902" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I902">
+        <v>0.94404761904761902</v>
+      </c>
+    </row>
+    <row r="903" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I903">
+        <v>0.90523255813953396</v>
+      </c>
+    </row>
+    <row r="904" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I904">
+        <v>0.93495934959349503</v>
+      </c>
+    </row>
+    <row r="905" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I905">
+        <v>0.97267441860465098</v>
+      </c>
+    </row>
+    <row r="906" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I906">
+        <v>0.93508771929824497</v>
+      </c>
+    </row>
+    <row r="907" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I907">
+        <v>0.891891891891891</v>
+      </c>
+    </row>
+    <row r="908" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I908">
+        <v>0.96864111498257799</v>
+      </c>
+    </row>
+    <row r="909" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I909">
+        <v>0.91403508771929798</v>
+      </c>
+    </row>
+    <row r="910" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I910">
+        <v>0.91016548463356906</v>
+      </c>
+    </row>
+    <row r="911" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I911">
+        <v>0.87661574618096305</v>
+      </c>
+    </row>
+    <row r="912" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I912">
+        <v>0.961046511627907</v>
+      </c>
+    </row>
+    <row r="913" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I913">
+        <v>0.89539007092198497</v>
+      </c>
+    </row>
+    <row r="914" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I914">
+        <v>0.91428571428571404</v>
+      </c>
+    </row>
+    <row r="915" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I915">
+        <v>0.94463869463869399</v>
+      </c>
+    </row>
+    <row r="916" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I916">
+        <v>0.88327526132404099</v>
+      </c>
+    </row>
+    <row r="917" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I917">
+        <v>0.92508710801393701</v>
+      </c>
+    </row>
+    <row r="918" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I918">
+        <v>0.91115196078431304</v>
+      </c>
+    </row>
+    <row r="919" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I919">
+        <v>0.91521486643437799</v>
+      </c>
+    </row>
+    <row r="920" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I920">
+        <v>0.92906976744185998</v>
+      </c>
+    </row>
+    <row r="921" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I921">
+        <v>0.88170163170163096</v>
+      </c>
+    </row>
+    <row r="922" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I922">
+        <v>0.91988304093567197</v>
+      </c>
+    </row>
+    <row r="923" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I923">
+        <v>0.94947735191637594</v>
+      </c>
+    </row>
+    <row r="924" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I924">
+        <v>0.94813519813519798</v>
+      </c>
+    </row>
+    <row r="925" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I925">
+        <v>0.86875725900116096</v>
+      </c>
+    </row>
+    <row r="926" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I926">
+        <v>0.94152046783625698</v>
+      </c>
+    </row>
+    <row r="927" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I927">
+        <v>0.88479532163742602</v>
+      </c>
+    </row>
+    <row r="928" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I928">
+        <v>0.91251596424010195</v>
+      </c>
+    </row>
+    <row r="929" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I929">
+        <v>0.89464285714285696</v>
+      </c>
+    </row>
+    <row r="930" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I930">
+        <v>0.890661938534279</v>
+      </c>
+    </row>
+    <row r="931" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I931">
+        <v>0.93298368298368295</v>
+      </c>
+    </row>
+    <row r="932" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I932">
+        <v>0.915116279069767</v>
+      </c>
+    </row>
+    <row r="933" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I933">
+        <v>0.90882694541231102</v>
+      </c>
+    </row>
+    <row r="934" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I934">
+        <v>0.85772357723577197</v>
+      </c>
+    </row>
+    <row r="935" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I935">
+        <v>0.930894308943089</v>
+      </c>
+    </row>
+    <row r="936" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I936">
+        <v>0.79709302325581399</v>
+      </c>
+    </row>
+    <row r="937" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I937">
+        <v>0.87100893997445705</v>
+      </c>
+    </row>
+    <row r="938" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I938">
+        <v>0.83565621370499399</v>
+      </c>
+    </row>
+    <row r="939" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I939">
+        <v>0.96860465116279004</v>
+      </c>
+    </row>
+    <row r="940" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I940">
+        <v>0.86140350877192895</v>
+      </c>
+    </row>
+    <row r="941" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I941">
+        <v>0.87790697674418605</v>
+      </c>
+    </row>
+    <row r="942" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I942">
+        <v>0.92799070847851295</v>
+      </c>
+    </row>
+    <row r="943" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I943">
+        <v>0.88187134502923903</v>
+      </c>
+    </row>
+    <row r="944" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I944">
+        <v>0.891891891891891</v>
+      </c>
+    </row>
+    <row r="945" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I945">
+        <v>0.91345029239765996</v>
+      </c>
+    </row>
+    <row r="946" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I946">
+        <v>0.84651162790697598</v>
+      </c>
+    </row>
+    <row r="947" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I947">
+        <v>0.915501165501165</v>
+      </c>
+    </row>
+    <row r="948" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I948">
+        <v>0.83101045296167197</v>
+      </c>
+    </row>
+    <row r="949" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I949">
+        <v>0.909696969696969</v>
+      </c>
+    </row>
+    <row r="950" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I950">
+        <v>0.92917166866746703</v>
+      </c>
+    </row>
+    <row r="951" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I951">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="952" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I952">
+        <v>0.83681765389082396</v>
+      </c>
+    </row>
+    <row r="953" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I953">
+        <v>0.90935672514619803</v>
+      </c>
+    </row>
+    <row r="954" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I954">
+        <v>0.942105263157894</v>
+      </c>
+    </row>
+    <row r="955" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I955">
+        <v>0.89272727272727204</v>
+      </c>
+    </row>
+    <row r="956" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I956">
+        <v>0.89082462253193895</v>
+      </c>
+    </row>
+    <row r="957" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I957">
+        <v>0.87720329024676802</v>
+      </c>
+    </row>
+    <row r="958" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I958">
+        <v>0.92431761786600497</v>
+      </c>
+    </row>
+    <row r="959" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I959">
+        <v>0.88053613053613</v>
+      </c>
+    </row>
+    <row r="960" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I960">
+        <v>0.85294117647058798</v>
+      </c>
+    </row>
+    <row r="961" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I961">
+        <v>0.83916083916083895</v>
+      </c>
+    </row>
+    <row r="962" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I962">
+        <v>0.87282229965156799</v>
+      </c>
+    </row>
+    <row r="963" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I963">
+        <v>0.92674418604651099</v>
+      </c>
+    </row>
+    <row r="964" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I964">
+        <v>0.91173054587688696</v>
+      </c>
+    </row>
+    <row r="965" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I965">
+        <v>0.92339181286549699</v>
+      </c>
+    </row>
+    <row r="966" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I966">
+        <v>0.87688734030197402</v>
+      </c>
+    </row>
+    <row r="967" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I967">
+        <v>0.90697674418604601</v>
+      </c>
+    </row>
+    <row r="968" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I968">
+        <v>0.91695702671312396</v>
+      </c>
+    </row>
+    <row r="969" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I969">
+        <v>0.86662749706227904</v>
+      </c>
+    </row>
+    <row r="970" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I970">
+        <v>0.94069767441860397</v>
+      </c>
+    </row>
+    <row r="971" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I971">
+        <v>0.893728222996515</v>
+      </c>
+    </row>
+    <row r="972" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I972">
+        <v>0.93742690058479505</v>
+      </c>
+    </row>
+    <row r="973" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I973">
+        <v>0.888501742160278</v>
+      </c>
+    </row>
+    <row r="974" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I974">
+        <v>0.92242424242424204</v>
+      </c>
+    </row>
+    <row r="975" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I975">
+        <v>0.89127906976744098</v>
+      </c>
+    </row>
+    <row r="976" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I976">
+        <v>0.83313953488372094</v>
+      </c>
+    </row>
+    <row r="977" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I977">
+        <v>0.86545454545454503</v>
+      </c>
+    </row>
+    <row r="978" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I978">
+        <v>0.87547169811320702</v>
+      </c>
+    </row>
+    <row r="979" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I979">
+        <v>0.96794871794871795</v>
+      </c>
+    </row>
+    <row r="980" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I980">
+        <v>0.83837209302325499</v>
+      </c>
+    </row>
+    <row r="981" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I981">
+        <v>0.89685314685314599</v>
+      </c>
+    </row>
+    <row r="982" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I982">
+        <v>0.91716686674669801</v>
+      </c>
+    </row>
+    <row r="983" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I983">
+        <v>0.91956782713085194</v>
+      </c>
+    </row>
+    <row r="984" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I984">
+        <v>0.93321513002363998</v>
+      </c>
+    </row>
+    <row r="985" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I985">
+        <v>0.88734030197444802</v>
+      </c>
+    </row>
+    <row r="986" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I986">
+        <v>0.89952996474735603</v>
+      </c>
+    </row>
+    <row r="987" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I987">
+        <v>0.86976744186046495</v>
+      </c>
+    </row>
+    <row r="988" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I988">
+        <v>0.82052821128451303</v>
+      </c>
+    </row>
+    <row r="989" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I989">
+        <v>0.85198135198135105</v>
+      </c>
+    </row>
+    <row r="990" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I990">
+        <v>0.87251461988304002</v>
+      </c>
+    </row>
+    <row r="991" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I991">
+        <v>0.86353077816492396</v>
+      </c>
+    </row>
+    <row r="992" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I992">
+        <v>0.93830787309048103</v>
+      </c>
+    </row>
+    <row r="993" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I993">
+        <v>0.90787878787878695</v>
+      </c>
+    </row>
+    <row r="994" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I994">
+        <v>0.97591069330199698</v>
+      </c>
+    </row>
+    <row r="995" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I995">
+        <v>0.94424019607843102</v>
+      </c>
+    </row>
+    <row r="996" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I996">
+        <v>0.906177156177156</v>
+      </c>
+    </row>
+    <row r="997" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I997">
+        <v>0.89976689976689905</v>
+      </c>
+    </row>
+    <row r="998" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I998">
+        <v>0.95271867612293104</v>
+      </c>
+    </row>
+    <row r="999" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I999">
+        <v>0.92139479905437305</v>
+      </c>
+    </row>
+    <row r="1000" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I1000">
+        <v>0.90775558166862502</v>
+      </c>
+    </row>
+    <row r="1001" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I1001">
+        <v>0.93321078431372495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC718A7F-4416-4837-9CBF-C11F5F01DF1B}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="E42" sqref="A1:J1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41841,7 +48490,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41936,19 +48585,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="22">
         <v>0.61445783132530096</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="22">
         <v>0.66666666666666596</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="22">
         <v>0.439024390243902</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="22">
         <v>0.68118466898954699</v>
       </c>
       <c r="F5" s="8"/>
@@ -42470,10 +49119,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DAAAE-F486-4050-9A73-FCEB14C2F08D}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42578,45 +49227,93 @@
       <c r="A6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="8">
+        <v>0.77108433734939696</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.82578397212543497</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.6795533522009401E-2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="23">
+        <v>0.85542168674698704</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.146341463414634</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.898954703832752</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3.5593996368217702E-2</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="8">
+        <v>0.71084337349397497</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.792682926829268</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.6297940175469399E-2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="17">
+        <v>0.77108433734939696</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.87398373983739797</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3.9020391265700699E-2</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -42696,34 +49393,70 @@
       <c r="A15" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="8">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.79849012775841999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5.0753341677838001E-2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="8">
+        <v>0.75903614457831303</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.78803716608594598</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5.3607421318375897E-2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="8">
+        <v>0.75903614457831303</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.79152148664343702</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.4615474590977299E-2</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -42734,69 +49467,285 @@
       <c r="A20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="8">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.76132404181184599</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.3963546735516503E-2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="17">
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.292682926829268</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.78048780487804803</v>
+      </c>
+      <c r="F21" s="17">
+        <v>5.0459598557559E-2</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="8">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.76132404181184599</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5.0811772705345599E-2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="8">
+        <v>0.71084337349397497</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.78977932636469195</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.7430972809254297E-2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="8">
+        <v>0.66265060240963802</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.31707317073170699</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.71544715447154394</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5.6502394941349898E-2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="8">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.68176538908246198</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5.88533002251002E-2</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.66265060240963802</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.70847851335656198</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5.8569061312403699E-2</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.60240963855421603</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.46341463414634099</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.63472706155632896</v>
+      </c>
+      <c r="F29" s="17">
+        <v>5.9040421921845603E-2</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.75903614457831303</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.24390243902438999</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.79907084785133498</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4.7534107232179497E-2</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.63855421686746905</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.675377468060394</v>
+      </c>
+      <c r="F31" s="8">
+        <v>6.0990132955240903E-2</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.57831325301204795</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.46341463414634099</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.60278745644599296</v>
+      </c>
+      <c r="F32" s="8">
+        <v>6.4042337558563894E-2</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.43373493975903599</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.41114982578397202</v>
+      </c>
+      <c r="F33" s="8">
+        <v>6.2429776926566101E-2</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>